--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_17.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>525527.8977447191</v>
+        <v>565870.2796752304</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>335690.329388977</v>
+        <v>337002.243055424</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10911602.29072687</v>
+        <v>10947499.6809952</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8442333.793387052</v>
+        <v>8424682.894232525</v>
       </c>
     </row>
     <row r="11">
@@ -671,16 +673,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
-        <v>103.0088977318019</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>1.809496073036188</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -701,13 +703,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -719,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -744,16 +746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>62.48291670214915</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>99.28668815680327</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -789,13 +791,13 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -804,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -835,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -859,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -893,31 +895,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>190.3453970742849</v>
       </c>
       <c r="C5" t="n">
-        <v>1.809496073036132</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -972,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -996,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1023,25 +1025,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>103.7130553628817</v>
+        <v>148.6429936570148</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1093,19 +1095,19 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1136,22 +1138,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>263.2420339516666</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I8" t="n">
-        <v>21.07650555046251</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1175,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1184,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>222.6908602868995</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3382516189322</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1209,25 +1211,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>107.8474742602244</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>84.14750936819277</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1257,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>97.08446202703757</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>199.9652070090748</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1306,16 +1308,16 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="I10" t="n">
-        <v>69.40990664858337</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>90.42516245839145</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>341.5795243578115</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>269.5134569480836</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,22 +1423,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1531,13 +1533,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>15.1823972622756</v>
       </c>
       <c r="G13" t="n">
         <v>167.3098022590509</v>
@@ -1549,7 +1551,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>63.57678144609376</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1613,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1622,7 +1624,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1664,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>15.80210689896973</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>290.5286403308943</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1698,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231963</v>
       </c>
       <c r="H15" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1807,22 +1809,22 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>129.0246247964035</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>54.47555601903363</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1847,16 +1849,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>413.1818335825648</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1901,16 +1903,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>323.9918595228955</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2053,19 +2055,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>129.0246247964035</v>
+        <v>155.4526127311943</v>
       </c>
       <c r="U19" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2093,13 +2095,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>26.94389492651069</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,28 +2128,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>68.60311175799531</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2205,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S21" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T21" t="n">
         <v>196.8897623984489</v>
@@ -2239,10 +2241,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>43.31785343913975</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2302,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>171.7498680634317</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>275.2487801718087</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>376.184863643924</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2372,16 +2374,16 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2473,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>162.5776147681367</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>120.7419800545114</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2542,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2555,10 +2557,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2573,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2600,13 +2602,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>199.6289396988178</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
         <v>251.2241675082893</v>
@@ -2618,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>322.3111211042057</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2637,7 +2639,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646389</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -2694,7 +2696,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>251.6949831609193</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -2710,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>38.85099796338696</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2776,10 +2778,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>4.553842565068717</v>
       </c>
     </row>
     <row r="29">
@@ -2798,13 +2800,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>269.5134569480836</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2837,22 +2839,22 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>262.8951264259748</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2956,13 +2958,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>101.780687729549</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3016,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>28.51033041214364</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3035,19 +3037,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>355.5467565582664</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>26.64360395382583</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3086,16 +3088,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3202,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3241,10 +3243,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>190.2713935802968</v>
       </c>
       <c r="V34" t="n">
-        <v>4.607334289833757</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>298.6283627759816</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3272,19 +3274,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>221.1245127325159</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -3320,13 +3322,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3393,7 +3395,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S36" t="n">
-        <v>156.591242632523</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T36" t="n">
         <v>196.8897623984489</v>
@@ -3430,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3442,10 +3444,10 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3466,22 +3468,22 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>165.0566567996923</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>190.2713935802968</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3506,19 +3508,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.99821925706101</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>130.1024780662194</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3548,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3557,10 +3559,10 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3594,7 +3596,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231963</v>
       </c>
       <c r="H39" t="n">
         <v>104.3883541553076</v>
@@ -3658,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3709,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>162.3364906735235</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3721,13 +3723,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>108.2198021316252</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>322.8156897822619</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>26.64360395382583</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3790,13 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3803,10 +3805,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3904,13 +3906,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>9.693200015578107</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3949,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>274.4246847141212</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3961,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3977,22 +3979,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,10 +4027,10 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
         <v>251.2241675082893</v>
@@ -4037,13 +4039,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>177.2389031129445</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>33.04999020673021</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4059,7 +4061,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646384</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -4138,22 +4140,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>92.00803688215785</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4192,13 +4194,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>155.2114886365808</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>348.0024326625565</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C2" t="n">
-        <v>348.0024326625565</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D2" t="n">
-        <v>348.0024326625565</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E2" t="n">
-        <v>348.0024326625565</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F2" t="n">
-        <v>348.0024326625565</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="G2" t="n">
-        <v>348.0024326625565</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H2" t="n">
-        <v>243.9530410142718</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35113235729607</v>
+        <v>21.10891692136039</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>591.4512093066566</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X2" t="n">
-        <v>348.0024326625565</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y2" t="n">
-        <v>348.0024326625565</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>425.5489231905453</v>
+        <v>655.1273272985679</v>
       </c>
       <c r="C3" t="n">
-        <v>425.5489231905453</v>
+        <v>655.1273272985679</v>
       </c>
       <c r="D3" t="n">
-        <v>425.5489231905453</v>
+        <v>655.1273272985679</v>
       </c>
       <c r="E3" t="n">
-        <v>425.5489231905453</v>
+        <v>495.8898722931124</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>349.3553143199974</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>210.6244889026129</v>
       </c>
       <c r="H3" t="n">
         <v>110.334904905842</v>
@@ -4410,22 +4412,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>74.24228005117135</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4437,22 +4439,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>660.701031422288</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U3" t="n">
-        <v>660.701031422288</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V3" t="n">
-        <v>425.5489231905453</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W3" t="n">
-        <v>425.5489231905453</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X3" t="n">
-        <v>425.5489231905453</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y3" t="n">
-        <v>425.5489231905453</v>
+        <v>655.1273272985679</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4507,31 +4509,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="C5" t="n">
-        <v>962.2293816994886</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D5" t="n">
-        <v>962.2293816994886</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E5" t="n">
-        <v>718.7806050553886</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F5" t="n">
-        <v>475.3318284112885</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G5" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>193.7341723913397</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4650,19 +4652,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M6" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N6" t="n">
-        <v>726.4525409563269</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4671,25 +4673,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>859.2964935279274</v>
+        <v>813.9127174732475</v>
       </c>
       <c r="T6" t="n">
-        <v>657.1098988866934</v>
+        <v>813.9127174732475</v>
       </c>
       <c r="U6" t="n">
-        <v>428.8862806230825</v>
+        <v>813.9127174732475</v>
       </c>
       <c r="V6" t="n">
-        <v>193.7341723913397</v>
+        <v>813.9127174732475</v>
       </c>
       <c r="W6" t="n">
-        <v>193.7341723913397</v>
+        <v>570.4639408291474</v>
       </c>
       <c r="X6" t="n">
-        <v>193.7341723913397</v>
+        <v>570.4639408291474</v>
       </c>
       <c r="Y6" t="n">
-        <v>193.7341723913397</v>
+        <v>362.7036420641935</v>
       </c>
     </row>
     <row r="7">
@@ -4741,16 +4743,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
         <v>19.28114311021272</v>
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>308.2498066576779</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C8" t="n">
-        <v>308.2498066576779</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D8" t="n">
-        <v>308.2498066576779</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E8" t="n">
-        <v>308.2498066576779</v>
+        <v>710.516763498309</v>
       </c>
       <c r="F8" t="n">
-        <v>308.2498066576779</v>
+        <v>467.067986854209</v>
       </c>
       <c r="G8" t="n">
-        <v>308.2498066576779</v>
+        <v>467.067986854209</v>
       </c>
       <c r="H8" t="n">
-        <v>42.34876226205506</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="I8" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>135.7250809573682</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>330.254671414236</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>563.3128681098021</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>785.5101925369327</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>950.1371873885137</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>1052.968135806666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>1052.968135806666</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>1052.968135806666</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>1052.968135806666</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>828.027872890606</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>574.1508510533007</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>574.1508510533007</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W8" t="n">
-        <v>574.1508510533007</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X8" t="n">
-        <v>308.2498066576779</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y8" t="n">
-        <v>308.2498066576779</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>584.7026280430505</v>
+        <v>104.2786273205085</v>
       </c>
       <c r="C9" t="n">
-        <v>475.7657853559551</v>
+        <v>104.2786273205085</v>
       </c>
       <c r="D9" t="n">
-        <v>326.8313756947039</v>
+        <v>104.2786273205085</v>
       </c>
       <c r="E9" t="n">
-        <v>167.5939206892484</v>
+        <v>104.2786273205085</v>
       </c>
       <c r="F9" t="n">
-        <v>21.05936271613333</v>
+        <v>104.2786273205085</v>
       </c>
       <c r="G9" t="n">
-        <v>21.05936271613333</v>
+        <v>104.2786273205085</v>
       </c>
       <c r="H9" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
-        <v>24.95018035683209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>24.95018035683209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>265.5537082516946</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>526.1633218638444</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N9" t="n">
-        <v>786.7729354759944</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O9" t="n">
-        <v>1047.185999568486</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>1052.968135806666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
-        <v>1052.968135806666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>954.9030226480426</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>954.9030226480426</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T9" t="n">
-        <v>752.9179650631185</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U9" t="n">
-        <v>752.9179650631185</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V9" t="n">
-        <v>752.9179650631185</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="W9" t="n">
-        <v>752.9179650631185</v>
+        <v>312.0389260854624</v>
       </c>
       <c r="X9" t="n">
-        <v>752.9179650631185</v>
+        <v>312.0389260854624</v>
       </c>
       <c r="Y9" t="n">
-        <v>752.9179650631185</v>
+        <v>104.2786273205085</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>182.5089274706534</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>182.5089274706534</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>182.5089274706534</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>182.5089274706534</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>182.5089274706534</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G10" t="n">
-        <v>182.5089274706534</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H10" t="n">
-        <v>182.5089274706534</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
-        <v>112.3979106539025</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
-        <v>21.05936271613333</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>54.48163939360295</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>100.1098670955239</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>150.0877739486497</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>180.2341645716483</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>182.5089274706534</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>182.5089274706534</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>182.5089274706534</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>182.5089274706534</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>182.5089274706534</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>182.5089274706534</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>182.5089274706534</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>182.5089274706534</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>182.5089274706534</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>182.5089274706534</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5015,31 +5017,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1739.654191907094</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C11" t="n">
-        <v>1394.624369323446</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D11" t="n">
-        <v>1036.358670716696</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="E11" t="n">
-        <v>1036.358670716696</v>
+        <v>737.1647017090463</v>
       </c>
       <c r="F11" t="n">
-        <v>625.3727659270879</v>
+        <v>326.1787969194388</v>
       </c>
       <c r="G11" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H11" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
         <v>463.9616490733127</v>
@@ -5057,10 +5059,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
         <v>2642.120401548716</v>
@@ -5069,22 +5071,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T11" t="n">
-        <v>2423.485734520779</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U11" t="n">
-        <v>2423.485734520779</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V11" t="n">
-        <v>2092.422847177208</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W11" t="n">
-        <v>1739.654191907094</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X11" t="n">
-        <v>1739.654191907094</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y11" t="n">
-        <v>1739.654191907094</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="12">
@@ -5094,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G12" t="n">
         <v>221.4284102424006</v>
@@ -5115,19 +5117,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L12" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M12" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N12" t="n">
         <v>1748.695370517453</v>
@@ -5139,22 +5141,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W12" t="n">
         <v>1572.325111207638</v>
@@ -5173,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>663.910013048764</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C13" t="n">
-        <v>663.910013048764</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D13" t="n">
-        <v>663.910013048764</v>
+        <v>578.0123447940987</v>
       </c>
       <c r="E13" t="n">
-        <v>663.910013048764</v>
+        <v>578.0123447940987</v>
       </c>
       <c r="F13" t="n">
-        <v>517.0200655508536</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G13" t="n">
-        <v>348.0202652891861</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H13" t="n">
-        <v>190.2718927217162</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036446</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
@@ -5221,28 +5223,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R13" t="n">
-        <v>663.910013048764</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S13" t="n">
-        <v>663.910013048764</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T13" t="n">
-        <v>663.910013048764</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U13" t="n">
-        <v>663.910013048764</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V13" t="n">
-        <v>663.910013048764</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W13" t="n">
-        <v>663.910013048764</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X13" t="n">
-        <v>663.910013048764</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y13" t="n">
-        <v>663.910013048764</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1626.94664591678</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="C14" t="n">
-        <v>1626.94664591678</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="D14" t="n">
-        <v>1268.68094731003</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E14" t="n">
-        <v>882.8926947117852</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F14" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P14" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q14" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T14" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U14" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V14" t="n">
-        <v>2697.149091018223</v>
+        <v>2681.187366877849</v>
       </c>
       <c r="W14" t="n">
-        <v>2697.149091018223</v>
+        <v>2328.418711607735</v>
       </c>
       <c r="X14" t="n">
-        <v>2403.685817956713</v>
+        <v>1954.952953346655</v>
       </c>
       <c r="Y14" t="n">
-        <v>2013.546485980902</v>
+        <v>1954.952953346655</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G15" t="n">
         <v>221.4284102424006</v>
@@ -5352,46 +5354,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K15" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L15" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M15" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N15" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O15" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W15" t="n">
         <v>1572.325111207638</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M16" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064344</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T16" t="n">
-        <v>597.8010803716834</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="U16" t="n">
-        <v>308.6274700262513</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="17">
@@ -5489,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1584.314837422907</v>
+        <v>1219.679656148628</v>
       </c>
       <c r="C17" t="n">
-        <v>1215.352320482495</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="D17" t="n">
-        <v>857.0866218757449</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E17" t="n">
-        <v>471.2983692775006</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F17" t="n">
-        <v>471.2983692775006</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5531,34 +5533,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P17" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q17" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T17" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U17" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V17" t="n">
-        <v>2697.149091018223</v>
+        <v>2369.884586449641</v>
       </c>
       <c r="W17" t="n">
-        <v>2344.380435748109</v>
+        <v>2369.884586449641</v>
       </c>
       <c r="X17" t="n">
-        <v>1970.914677487029</v>
+        <v>1996.418828188561</v>
       </c>
       <c r="Y17" t="n">
-        <v>1970.914677487029</v>
+        <v>1606.27949621275</v>
       </c>
     </row>
     <row r="18">
@@ -5568,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G18" t="n">
         <v>221.4284102424006</v>
@@ -5589,46 +5591,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K18" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L18" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M18" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5647,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
@@ -5701,22 +5703,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T19" t="n">
-        <v>597.8010803716834</v>
+        <v>571.1061430638139</v>
       </c>
       <c r="U19" t="n">
-        <v>308.6274700262513</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V19" t="n">
-        <v>53.94298182036446</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W19" t="n">
-        <v>53.94298182036446</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2065.583954036491</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C20" t="n">
-        <v>1696.62143709608</v>
+        <v>825.2129885066831</v>
       </c>
       <c r="D20" t="n">
-        <v>1338.355738489329</v>
+        <v>466.9472898999326</v>
       </c>
       <c r="E20" t="n">
-        <v>952.5674858910851</v>
+        <v>81.15903730168839</v>
       </c>
       <c r="F20" t="n">
-        <v>952.5674858910851</v>
+        <v>81.15903730168839</v>
       </c>
       <c r="G20" t="n">
-        <v>534.603677789272</v>
+        <v>81.15903730168839</v>
       </c>
       <c r="H20" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I20" t="n">
         <v>53.94298182036445</v>
@@ -5753,16 +5755,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
@@ -5774,28 +5776,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T20" t="n">
-        <v>2396.646841380062</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U20" t="n">
-        <v>2396.646841380062</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V20" t="n">
-        <v>2065.583954036491</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W20" t="n">
-        <v>2065.583954036491</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X20" t="n">
-        <v>2065.583954036491</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y20" t="n">
-        <v>2065.583954036491</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="21">
@@ -5853,7 +5855,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S21" t="n">
         <v>2488.762748073964</v>
@@ -5884,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>372.9958041606071</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="C22" t="n">
-        <v>204.0596212327002</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="D22" t="n">
-        <v>53.94298182036445</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036445</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036445</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="G22" t="n">
         <v>53.94298182036445</v>
@@ -5914,46 +5916,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X22" t="n">
-        <v>728.1289842064344</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y22" t="n">
-        <v>554.6442689908469</v>
+        <v>279.3468541648867</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1314.38774159731</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C23" t="n">
-        <v>1314.38774159731</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D23" t="n">
-        <v>1036.358670716696</v>
+        <v>819.715945170047</v>
       </c>
       <c r="E23" t="n">
-        <v>1036.358670716696</v>
+        <v>433.9276925718028</v>
       </c>
       <c r="F23" t="n">
-        <v>625.3727659270879</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G23" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H23" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I23" t="n">
         <v>53.94298182036445</v>
@@ -5990,16 +5992,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
@@ -6011,28 +6013,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U23" t="n">
-        <v>2388.358616186807</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V23" t="n">
-        <v>2057.295728843236</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W23" t="n">
-        <v>1704.527073573122</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X23" t="n">
-        <v>1704.527073573122</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y23" t="n">
-        <v>1314.38774159731</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="24">
@@ -6042,73 +6044,73 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K24" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W24" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X24" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y24" t="n">
         <v>1156.713312237151</v>
@@ -6121,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.94298182036445</v>
+        <v>391.878965009939</v>
       </c>
       <c r="C25" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G25" t="n">
         <v>53.94298182036445</v>
@@ -6151,46 +6153,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064344</v>
+        <v>391.878965009939</v>
       </c>
       <c r="U25" t="n">
-        <v>438.9553738610024</v>
+        <v>391.878965009939</v>
       </c>
       <c r="V25" t="n">
-        <v>438.9553738610024</v>
+        <v>391.878965009939</v>
       </c>
       <c r="W25" t="n">
-        <v>438.9553738610024</v>
+        <v>391.878965009939</v>
       </c>
       <c r="X25" t="n">
-        <v>438.9553738610024</v>
+        <v>391.878965009939</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.1627947174723</v>
+        <v>391.878965009939</v>
       </c>
     </row>
     <row r="26">
@@ -6200,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>781.1711973675267</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="C26" t="n">
-        <v>412.208680427115</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="D26" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="E26" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="F26" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6242,34 +6244,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T26" t="n">
-        <v>2495.503697383053</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U26" t="n">
-        <v>2241.741912021145</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V26" t="n">
-        <v>1910.679024677574</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W26" t="n">
-        <v>1557.91036940746</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X26" t="n">
-        <v>1557.91036940746</v>
+        <v>984.1481298652084</v>
       </c>
       <c r="Y26" t="n">
-        <v>1167.771037431648</v>
+        <v>594.0087978893966</v>
       </c>
     </row>
     <row r="27">
@@ -6279,10 +6281,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D27" t="n">
         <v>665.1105362747051</v>
@@ -6300,46 +6302,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L27" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M27" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N27" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O27" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P27" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
         <v>1572.325111207638</v>
@@ -6348,7 +6350,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y27" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>688.885551920185</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C28" t="n">
-        <v>519.9493689922781</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D28" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E28" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F28" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064344</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U28" t="n">
-        <v>728.1289842064344</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="V28" t="n">
-        <v>728.1289842064344</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="W28" t="n">
-        <v>728.1289842064344</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="X28" t="n">
-        <v>728.1289842064344</v>
+        <v>58.54282279518134</v>
       </c>
       <c r="Y28" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="29">
@@ -6437,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.9054987607762</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C29" t="n">
-        <v>53.94298182036446</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D29" t="n">
-        <v>53.94298182036446</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="E29" t="n">
-        <v>53.94298182036446</v>
+        <v>737.1647017090463</v>
       </c>
       <c r="F29" t="n">
-        <v>53.94298182036446</v>
+        <v>326.1787969194388</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
         <v>2642.120401548716</v>
@@ -6491,22 +6493,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T29" t="n">
-        <v>2423.485734520779</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U29" t="n">
-        <v>2169.72394915887</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V29" t="n">
-        <v>1838.661061815299</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W29" t="n">
-        <v>1573.11042906179</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X29" t="n">
-        <v>1199.64467080071</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y29" t="n">
-        <v>809.505338824898</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G30" t="n">
         <v>221.4284102424006</v>
@@ -6537,46 +6539,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K30" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L30" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M30" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N30" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O30" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P30" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R30" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>517.6822058285749</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="C31" t="n">
-        <v>348.7460229006679</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="D31" t="n">
-        <v>348.7460229006679</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="E31" t="n">
-        <v>200.8329293182748</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036446</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y31" t="n">
-        <v>699.3306706588146</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="32">
@@ -6674,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1937.083492693021</v>
+        <v>808.0839286340174</v>
       </c>
       <c r="C32" t="n">
-        <v>1568.12097575261</v>
+        <v>439.1214116936057</v>
       </c>
       <c r="D32" t="n">
-        <v>1209.855277145859</v>
+        <v>80.85571308685519</v>
       </c>
       <c r="E32" t="n">
-        <v>824.0670245476149</v>
+        <v>80.85571308685519</v>
       </c>
       <c r="F32" t="n">
-        <v>413.0811197580073</v>
+        <v>80.85571308685519</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036446</v>
+        <v>80.85571308685519</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036446</v>
+        <v>80.85571308685519</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
         <v>463.9616490733127</v>
@@ -6710,40 +6712,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T32" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U32" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V32" t="n">
-        <v>2697.149091018223</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W32" t="n">
-        <v>2697.149091018223</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X32" t="n">
-        <v>2323.683332757143</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y32" t="n">
-        <v>2323.683332757143</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="33">
@@ -6774,10 +6776,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K33" t="n">
         <v>309.190302261463</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2317.040372100975</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C34" t="n">
-        <v>2317.040372100975</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D34" t="n">
-        <v>2317.040372100975</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E34" t="n">
-        <v>2317.040372100975</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F34" t="n">
-        <v>2317.040372100975</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G34" t="n">
-        <v>2317.040372100975</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H34" t="n">
-        <v>2159.291999533505</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K34" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.83913925958</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.73700797761</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R34" t="n">
-        <v>2549.002432452407</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>2549.002432452407</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>2321.694245121009</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U34" t="n">
-        <v>2321.694245121009</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V34" t="n">
-        <v>2317.040372100975</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W34" t="n">
-        <v>2317.040372100975</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X34" t="n">
-        <v>2317.040372100975</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y34" t="n">
-        <v>2317.040372100975</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="35">
@@ -6911,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1261.831893336434</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="C35" t="n">
-        <v>892.8693763960225</v>
+        <v>1348.549746658564</v>
       </c>
       <c r="D35" t="n">
-        <v>534.603677789272</v>
+        <v>990.2840480518139</v>
       </c>
       <c r="E35" t="n">
-        <v>534.603677789272</v>
+        <v>604.4957954535696</v>
       </c>
       <c r="F35" t="n">
-        <v>534.603677789272</v>
+        <v>604.4957954535696</v>
       </c>
       <c r="G35" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H35" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6953,34 +6955,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S35" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T35" t="n">
-        <v>2247.308246834949</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U35" t="n">
-        <v>2247.308246834949</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V35" t="n">
-        <v>1916.245359491378</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W35" t="n">
-        <v>1563.476704221264</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="X35" t="n">
-        <v>1563.476704221264</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="Y35" t="n">
-        <v>1563.476704221264</v>
+        <v>1717.512263598976</v>
       </c>
     </row>
     <row r="36">
@@ -6990,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G36" t="n">
         <v>221.4284102424006</v>
@@ -7011,10 +7013,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K36" t="n">
         <v>309.190302261463</v>
@@ -7023,34 +7025,34 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M36" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2352.861617548764</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C37" t="n">
-        <v>2352.861617548764</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D37" t="n">
-        <v>2352.861617548764</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E37" t="n">
-        <v>2204.948523966371</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F37" t="n">
-        <v>2204.948523966371</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G37" t="n">
-        <v>2204.948523966371</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H37" t="n">
-        <v>2204.948523966371</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I37" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>2206.83913925958</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
-        <v>2351.73700797761</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N37" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O37" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P37" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q37" t="n">
-        <v>2667.732171871845</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>2519.585513306029</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>2352.861617548764</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>2352.861617548764</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U37" t="n">
-        <v>2352.861617548764</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V37" t="n">
-        <v>2352.861617548764</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W37" t="n">
-        <v>2352.861617548764</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X37" t="n">
-        <v>2352.861617548764</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y37" t="n">
-        <v>2352.861617548764</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1194.175505447095</v>
+        <v>554.3221432721089</v>
       </c>
       <c r="C38" t="n">
-        <v>825.2129885066831</v>
+        <v>185.3596263316971</v>
       </c>
       <c r="D38" t="n">
-        <v>466.9472898999326</v>
+        <v>185.3596263316971</v>
       </c>
       <c r="E38" t="n">
-        <v>466.9472898999326</v>
+        <v>185.3596263316971</v>
       </c>
       <c r="F38" t="n">
-        <v>55.96138511032507</v>
+        <v>185.3596263316971</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036445</v>
+        <v>185.3596263316971</v>
       </c>
       <c r="H38" t="n">
         <v>53.94298182036445</v>
@@ -7172,19 +7174,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533138</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
@@ -7196,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U38" t="n">
-        <v>2697.149091018222</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V38" t="n">
-        <v>2697.149091018222</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W38" t="n">
-        <v>2344.380435748108</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X38" t="n">
-        <v>1970.914677487028</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y38" t="n">
-        <v>1580.775345511217</v>
+        <v>940.9219833362306</v>
       </c>
     </row>
     <row r="39">
@@ -7233,16 +7235,16 @@
         <v>814.044945935956</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E39" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F39" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H39" t="n">
         <v>115.9856282673424</v>
@@ -7251,25 +7253,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K39" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L39" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M39" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N39" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O39" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P39" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018222</v>
@@ -7306,7 +7308,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C40" t="n">
         <v>53.94298182036445</v>
@@ -7357,25 +7359,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S40" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T40" t="n">
-        <v>513.8405610245972</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="U40" t="n">
-        <v>513.8405610245972</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="V40" t="n">
-        <v>513.8405610245972</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="W40" t="n">
-        <v>513.8405610245972</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X40" t="n">
-        <v>404.5276295785111</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y40" t="n">
-        <v>404.5276295785111</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="41">
@@ -7385,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1309.714918859356</v>
+        <v>808.0839286340174</v>
       </c>
       <c r="C41" t="n">
-        <v>983.6384645338385</v>
+        <v>439.1214116936057</v>
       </c>
       <c r="D41" t="n">
-        <v>625.3727659270879</v>
+        <v>80.85571308685519</v>
       </c>
       <c r="E41" t="n">
-        <v>625.3727659270879</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F41" t="n">
-        <v>625.3727659270879</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G41" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H41" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I41" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
@@ -7436,25 +7438,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T41" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U41" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V41" t="n">
-        <v>1662.48357412947</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W41" t="n">
-        <v>1309.714918859356</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X41" t="n">
-        <v>1309.714918859356</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y41" t="n">
-        <v>1309.714918859356</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="42">
@@ -7488,28 +7490,28 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K42" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L42" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M42" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N42" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O42" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P42" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R42" t="n">
         <v>2646.935720430048</v>
@@ -7543,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>222.942782082032</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="C43" t="n">
-        <v>222.942782082032</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="D43" t="n">
-        <v>222.942782082032</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="E43" t="n">
-        <v>222.942782082032</v>
+        <v>63.73409294721102</v>
       </c>
       <c r="F43" t="n">
-        <v>222.942782082032</v>
+        <v>63.73409294721102</v>
       </c>
       <c r="G43" t="n">
         <v>53.94298182036445</v>
@@ -7597,22 +7599,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T43" t="n">
-        <v>728.1289842064344</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U43" t="n">
-        <v>450.9323329800494</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="V43" t="n">
-        <v>450.9323329800494</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="W43" t="n">
-        <v>450.9323329800494</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="X43" t="n">
-        <v>222.942782082032</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.942782082032</v>
+        <v>211.6471865296041</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1108.365917331524</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="C44" t="n">
-        <v>739.4034003911122</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D44" t="n">
-        <v>381.1377017843616</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E44" t="n">
-        <v>381.1377017843616</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F44" t="n">
-        <v>381.1377017843616</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G44" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H44" t="n">
         <v>53.94298182036445</v>
@@ -7646,13 +7648,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533138</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
@@ -7673,25 +7675,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U44" t="n">
-        <v>2212.181128500977</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V44" t="n">
-        <v>1881.118241157406</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W44" t="n">
-        <v>1528.349585887292</v>
+        <v>1659.631866751719</v>
       </c>
       <c r="X44" t="n">
-        <v>1528.349585887292</v>
+        <v>1659.631866751719</v>
       </c>
       <c r="Y44" t="n">
-        <v>1494.965757395646</v>
+        <v>1269.492534775907</v>
       </c>
     </row>
     <row r="45">
@@ -7707,16 +7709,16 @@
         <v>814.044945935956</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H45" t="n">
         <v>115.9856282673424</v>
@@ -7737,13 +7739,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018222</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2697.149091018222</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C46" t="n">
-        <v>2697.149091018222</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D46" t="n">
-        <v>2547.032451605887</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E46" t="n">
-        <v>2399.119358023494</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F46" t="n">
-        <v>2252.229410525583</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G46" t="n">
-        <v>2252.229410525583</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H46" t="n">
-        <v>2159.291999533505</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I46" t="n">
         <v>2022.963088632153</v>
@@ -7840,16 +7842,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="V46" t="n">
-        <v>2697.149091018222</v>
+        <v>2540.369809567131</v>
       </c>
       <c r="W46" t="n">
-        <v>2697.149091018222</v>
+        <v>2250.95263953017</v>
       </c>
       <c r="X46" t="n">
-        <v>2697.149091018222</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y46" t="n">
-        <v>2697.149091018222</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8058,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>193.3577389147212</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8067,16 +8069,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,7 +8300,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
@@ -8307,13 +8309,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>312.5053919605859</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>129.8481964236088</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>392.8337743093848</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N9" t="n">
-        <v>381.709495280812</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>130.3625277915347</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>133.663080786811</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8778,7 +8780,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8945,7 +8947,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9003,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9015,7 +9017,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9024,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9240,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9249,7 +9251,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>346.2692436516226</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9261,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9407,7 +9409,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.513533492832</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9477,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9498,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>166.6588033951776</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9644,7 +9646,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9714,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>251.4045252050814</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9735,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9881,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9951,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9960,7 +9962,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -9972,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10446,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10604,7 +10606,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10662,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10671,7 +10673,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>422.2865794093294</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10683,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10899,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10920,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.64146763747073</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711643</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11136,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11154,10 +11156,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992664</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11303,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.513533492832</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11385,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11394,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22559,16 +22561,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
-        <v>236.4659043839653</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>10.13979328157633</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22589,13 +22591,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -22607,10 +22609,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22632,16 +22634,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>82.58629569123474</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>12.9487560796932</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -22677,13 +22679,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -22692,7 +22694,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22723,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22747,10 +22749,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22781,31 +22783,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>192.3884445891957</v>
       </c>
       <c r="C5" t="n">
-        <v>363.4633956979714</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
         <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22826,7 +22828,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -22860,7 +22862,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -22884,7 +22886,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22911,25 +22913,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>67.97011574095609</v>
+        <v>23.04017744682304</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22981,19 +22983,19 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -23024,25 +23026,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>415.2102214038314</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>75.28528753921177</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
-        <v>185.8326566389084</v>
+        <v>8.181203141508689</v>
       </c>
       <c r="J8" t="n">
-        <v>4.097100052852173</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23066,16 +23068,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>144.0576027644702</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>206.9118586999128</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23084,7 +23086,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>106.4890667268024</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23097,31 +23099,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>64.86102472809135</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.2940166796957</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>111.757373777286</v>
+        <v>28.08793486830369</v>
       </c>
       <c r="I9" t="n">
-        <v>87.69233988828964</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>170.7637213332854</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9381254702172</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23191,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9494798159088</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>161.8582038473137</v>
+        <v>51.30969674795439</v>
       </c>
       <c r="I10" t="n">
-        <v>84.79256385362739</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>17.44799951871617</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23218,22 +23220,22 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.6870224659892</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>175.4274210366964</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>223.2933741908973</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.7682732010226</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3167657450791</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23255,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>23.69336741319609</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>144.2707130727114</v>
       </c>
       <c r="H11" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,22 +23311,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23419,13 +23421,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>130.2386507606556</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23437,7 +23439,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>83.08841053406407</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S13" t="n">
         <v>212.1455389500189</v>
@@ -23501,7 +23503,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>151.9313162448613</v>
@@ -23540,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
@@ -23552,16 +23554,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>311.9501515711652</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>79.20246034757474</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23671,10 +23673,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,22 +23697,22 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>96.01048066168073</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>231.8063182229441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23735,16 +23737,16 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6023364382302248</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
@@ -23789,16 +23791,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>3.760398947239423</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23941,19 +23943,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>96.01048066168073</v>
+        <v>69.58249272688994</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23981,13 +23983,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>296.9788778378464</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>147.8452085996625</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24127,10 +24129,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>123.9919488199112</v>
       </c>
       <c r="H22" t="n">
         <v>156.1708888417951</v>
@@ -24148,7 +24150,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
         <v>212.1455389500189</v>
@@ -24190,10 +24192,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>46.83478528866308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24203,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>79.43426144887422</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>30.69118209778748</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
@@ -24260,16 +24262,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24361,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>17.25436541380057</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24376,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>156.1708888417951</v>
@@ -24385,7 +24387,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24409,16 +24411,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>104.2931254035729</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24430,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24443,10 +24445,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24461,7 +24463,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,13 +24490,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>16.81938065883998</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24506,7 +24508,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>47.41997957426338</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24598,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>140.9809822185503</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
         <v>156.1708888417951</v>
@@ -24622,7 +24624,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24646,13 +24648,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2818742419777</v>
@@ -24664,10 +24666,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>214.0308107870261</v>
       </c>
     </row>
     <row r="29">
@@ -24686,13 +24688,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>144.2707130727114</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
@@ -24731,16 +24733,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>86.3458422914382</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24844,13 +24846,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>65.52911452950187</v>
       </c>
       <c r="H31" t="n">
         <v>156.1708888417951</v>
@@ -24859,7 +24861,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
         <v>212.1455389500189</v>
@@ -24904,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>190.0743229399511</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24923,19 +24925,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>58.23741346252859</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>125.2877122910354</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
@@ -24974,16 +24976,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25090,13 +25092,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
@@ -25129,10 +25131,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>96.01048066168096</v>
       </c>
       <c r="V34" t="n">
-        <v>247.5303090339943</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25151,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>84.10547888749898</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25160,19 +25162,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>192.6596572882791</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -25208,13 +25210,13 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25318,7 +25320,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25330,10 +25332,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,22 +25356,22 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
-        <v>47.08888215032664</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>96.01048066168096</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25394,19 +25396,19 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.785950763734</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>193.8202946981378</v>
       </c>
       <c r="I38" t="n">
         <v>151.9313162448613</v>
@@ -25436,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
@@ -25445,10 +25447,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25546,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25597,10 +25599,10 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>62.69861478456082</v>
       </c>
       <c r="U40" t="n">
         <v>286.2818742419777</v>
@@ -25609,13 +25611,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>117.489853257412</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25625,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>42.45720198874568</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>355.2867661184359</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25691,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25792,13 +25794,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>157.6166022434728</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
@@ -25837,10 +25839,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>11.85718952785658</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25849,7 +25851,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25865,22 +25867,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
         <v>151.9313162448613</v>
@@ -25913,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25925,13 +25927,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>172.0020656044685</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>353.1879484493234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26026,22 +26028,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
-        <v>64.16285195963729</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
         <v>45.19995918853699</v>
@@ -26080,13 +26082,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>96.92615468724722</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>482163.6750662233</v>
+        <v>482163.6750662234</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>501254.8875917585</v>
+        <v>482163.6750662234</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>810543.9642182668</v>
+        <v>810543.9642182667</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>810543.9642182667</v>
+        <v>810543.9642182668</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>810543.9642182667</v>
+        <v>810543.9642182668</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>810543.9642182667</v>
+        <v>810543.9642182669</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>810543.9642182668</v>
+        <v>810543.9642182665</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>810543.9642182668</v>
+        <v>810543.9642182667</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>810543.9642182667</v>
+        <v>810543.9642182665</v>
       </c>
     </row>
   </sheetData>
@@ -26317,13 +26319,13 @@
         <v>141236.5716516325</v>
       </c>
       <c r="D2" t="n">
-        <v>147339.127997248</v>
+        <v>141236.5716516325</v>
       </c>
       <c r="E2" t="n">
         <v>245779.7185133939</v>
       </c>
       <c r="F2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.7185133938</v>
       </c>
       <c r="G2" t="n">
         <v>245779.7185133939</v>
@@ -26347,7 +26349,7 @@
         <v>245779.7185133939</v>
       </c>
       <c r="N2" t="n">
-        <v>245779.718513394</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="O2" t="n">
         <v>245779.7185133939</v>
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>26613.58757266295</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>407720.4376835746</v>
+        <v>432846.1740429961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910626</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>5625.642228525643</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>102434.1176906352</v>
+        <v>107973.3606740581</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>42017.42535589614</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="C4" t="n">
-        <v>42017.42535589614</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="D4" t="n">
-        <v>42100.10620798598</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="E4" t="n">
         <v>44802.65617556861</v>
@@ -26430,31 +26432,31 @@
         <v>44802.65617556861</v>
       </c>
       <c r="G4" t="n">
+        <v>44802.6561755686</v>
+      </c>
+      <c r="H4" t="n">
         <v>44802.65617556861</v>
-      </c>
-      <c r="H4" t="n">
-        <v>44802.65617556859</v>
       </c>
       <c r="I4" t="n">
         <v>44802.65617556861</v>
       </c>
       <c r="J4" t="n">
-        <v>44802.6561755686</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="K4" t="n">
-        <v>44802.6561755686</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="L4" t="n">
-        <v>44802.6561755686</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="M4" t="n">
         <v>44802.65617556861</v>
       </c>
       <c r="N4" t="n">
-        <v>44802.65617556859</v>
+        <v>44802.6561755686</v>
       </c>
       <c r="O4" t="n">
-        <v>44802.65617556859</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="P4" t="n">
         <v>44802.6561755686</v>
@@ -26473,16 +26475,16 @@
         <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>50134.40740683333</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="F5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="G5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="H5" t="n">
         <v>49231.47806340946</v>
@@ -26491,16 +26493,16 @@
         <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="K5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="L5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="M5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="N5" t="n">
         <v>49231.47806340946</v>
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-29831.55399957302</v>
+        <v>-29831.553999573</v>
       </c>
       <c r="C6" t="n">
-        <v>50937.87753197474</v>
+        <v>50937.87753197473</v>
       </c>
       <c r="D6" t="n">
-        <v>28491.02680976577</v>
+        <v>50937.87753197473</v>
       </c>
       <c r="E6" t="n">
-        <v>-255974.8534091587</v>
+        <v>-281100.5897685803</v>
       </c>
       <c r="F6" t="n">
+        <v>151745.5842744157</v>
+      </c>
+      <c r="G6" t="n">
         <v>151745.5842744159</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>151745.5842744158</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>151745.5842744159</v>
       </c>
-      <c r="I6" t="n">
-        <v>151745.5842744158</v>
-      </c>
       <c r="J6" t="n">
-        <v>88685.6416753096</v>
+        <v>88685.64167530958</v>
       </c>
       <c r="K6" t="n">
         <v>151745.5842744158</v>
       </c>
       <c r="L6" t="n">
-        <v>146119.9420458902</v>
+        <v>151745.5842744159</v>
       </c>
       <c r="M6" t="n">
-        <v>49311.46658378065</v>
+        <v>43772.22360035773</v>
       </c>
       <c r="N6" t="n">
         <v>151745.5842744159</v>
       </c>
       <c r="O6" t="n">
-        <v>151745.5842744159</v>
+        <v>151745.5842744158</v>
       </c>
       <c r="P6" t="n">
         <v>151745.5842744159</v>
@@ -26741,34 +26743,34 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678932</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="G3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="I3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="N3" t="n">
         <v>377.7436642170867</v>
@@ -26793,16 +26795,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>263.2420339516666</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
         <v>674.2872727545556</v>
@@ -26811,16 +26813,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
         <v>674.2872727545556</v>
@@ -26963,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678932</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>354.7302815302974</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>22.22774507400754</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>411.0452388028891</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776592</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>22.22774507400754</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>411.0452388028891</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>22.22774507400754</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>411.0452388028891</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.09251611130367558</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9474806248887679</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>3.566727381034957</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>7.852189301760344</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>11.76839629324494</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>14.5997362345548</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>16.24501962895154</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>16.50788103019311</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>15.58792394841718</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>13.30393245060769</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>5.811515176679516</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>2.108210886332509</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4049892772318401</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0.007401288904294046</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0495004835149808</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4780704592104726</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.704292963125436</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>4.676710155246499</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>7.993242550750212</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>10.74790103688213</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>12.54229356430018</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>12.87425075418792</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>11.77742425104019</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>9.452421277522957</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.318693299210532</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>3.073372125605564</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9194497705523841</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1995216857467866</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0.003256610757564528</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04149954254994795</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3689686601259011</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1.248004425047526</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2.93401765828132</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>4.821492307166679</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>6.169850171471354</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>6.505241928988658</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>6.350561815847949</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>5.865771705150827</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>5.019181037131885</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.475020785705187</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>1.865970340473114</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7232238460750018</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1773162272588684</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.002263611411815345</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,46 +31989,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L14" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N14" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q14" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32066,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I15" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32093,22 +32095,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32169,22 +32171,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U16" t="n">
         <v>0.0371551145131561</v>
@@ -32467,19 +32469,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L20" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N20" t="n">
         <v>270.9617944338304</v>
@@ -32494,13 +32496,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32540,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I21" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32567,22 +32569,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q21" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S21" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I22" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
         <v>79.14039391302239</v>
@@ -32643,16 +32645,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P22" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
@@ -32704,19 +32706,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L23" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
@@ -32731,13 +32733,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32777,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I24" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32804,22 +32806,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S24" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I25" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
         <v>79.14039391302239</v>
@@ -32880,16 +32882,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P25" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
@@ -32941,19 +32943,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L26" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N26" t="n">
         <v>270.9617944338304</v>
@@ -32968,13 +32970,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33014,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I27" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33041,22 +33043,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q27" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S27" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I28" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
         <v>79.14039391302239</v>
@@ -33117,16 +33119,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P28" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
@@ -33178,19 +33180,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L29" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N29" t="n">
         <v>270.9617944338304</v>
@@ -33205,13 +33207,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33251,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I30" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33278,22 +33280,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q30" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S30" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I31" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
         <v>79.14039391302239</v>
@@ -33354,16 +33356,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P31" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
@@ -33415,19 +33417,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L32" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N32" t="n">
         <v>270.9617944338304</v>
@@ -33442,13 +33444,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33488,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I33" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33515,22 +33517,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q33" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S33" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I34" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
         <v>79.14039391302239</v>
@@ -33591,16 +33593,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P34" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
@@ -33652,19 +33654,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L35" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N35" t="n">
         <v>270.9617944338304</v>
@@ -33679,13 +33681,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33725,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I36" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33752,22 +33754,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q36" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S36" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I37" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
         <v>79.14039391302239</v>
@@ -33828,16 +33830,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P37" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
@@ -34778,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>55.51629994036225</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
@@ -34787,16 +34789,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35018,7 +35020,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
@@ -35027,13 +35029,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>169.9091475161414</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>115.8239578194291</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>196.494535815018</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>235.4123198945113</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>224.4417418455864</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>166.2898937894758</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>103.8696448668208</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35249,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>3.930118828988642</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>243.0338665604671</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>263.2420339516666</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N9" t="n">
-        <v>263.2420339516666</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>263.0434990833253</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>5.840541654727375</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35334,19 +35336,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>33.75987543178749</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M10" t="n">
-        <v>46.08911889082925</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N10" t="n">
-        <v>50.48273419507654</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O10" t="n">
-        <v>30.4508996191905</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P10" t="n">
-        <v>2.297740302025373</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35489,7 +35491,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713857</v>
@@ -35498,7 +35500,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245898</v>
@@ -35644,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K14" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q14" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35735,16 +35737,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
@@ -35820,7 +35822,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35969,7 +35971,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M18" t="n">
-        <v>410.0055067279164</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
         <v>559.3197334338903</v>
@@ -35981,7 +35983,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q18" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K20" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060961</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
         <v>406.5635087530452</v>
@@ -36209,16 +36211,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.3926104730626</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K23" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
         <v>406.5635087530452</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M24" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K26" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
         <v>406.5635087530452</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36680,19 +36682,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M27" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K29" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
         <v>406.5635087530452</v>
@@ -36911,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L30" t="n">
         <v>408.7029475713857</v>
@@ -36920,16 +36922,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K32" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
         <v>406.5635087530452</v>
@@ -37157,16 +37159,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K35" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
         <v>406.5635087530452</v>
@@ -37324,7 +37326,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q35" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37391,19 +37393,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M36" t="n">
-        <v>486.0228424856233</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.9372285181306</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K38" t="n">
         <v>297.223041434342</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37640,7 +37642,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q39" t="n">
-        <v>54.37527471535575</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,7 +37782,7 @@
         <v>116.9372285181311</v>
       </c>
       <c r="K41" t="n">
-        <v>297.2230414343415</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L41" t="n">
         <v>421.5361394435302</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37874,10 +37876,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735647</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q42" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.9372285181306</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K44" t="n">
         <v>297.223041434342</v>
@@ -38023,7 +38025,7 @@
         <v>421.5361394435302</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060961</v>
       </c>
       <c r="N44" t="n">
         <v>478.8956552492237</v>
@@ -38105,7 +38107,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245898</v>
@@ -38114,7 +38116,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>565870.2796752304</v>
+        <v>497537.1536522537</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>337002.243055424</v>
+        <v>335414.3901624706</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10947499.6809952</v>
+        <v>10905804.67830212</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8424682.894232525</v>
+        <v>8445301.612181708</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,22 +667,22 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.809496073036188</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -746,22 +746,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.28668815680327</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -794,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="4">
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>190.3453970742849</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>215.4108546636941</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
     </row>
     <row r="6">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>99.6672001609758</v>
       </c>
       <c r="S6" t="n">
-        <v>148.6429936570148</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1328769967189</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>86.1448079962848</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>137.0815656650981</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1138,25 +1138,25 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="H8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>4.097100052852073</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,13 +1177,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>20.85462475186318</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>263.2420339516669</v>
       </c>
     </row>
     <row r="9">
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>84.14750936819277</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1262,25 +1262,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>105.3830043755893</v>
       </c>
     </row>
     <row r="10">
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>159.8350691069752</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1375,22 +1375,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>269.5134569480836</v>
+        <v>159.0015615664332</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,25 +1417,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1533,25 +1533,25 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>15.1823972622756</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1584,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>234.4871813790489</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1654,19 +1654,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>15.80210689896973</v>
+        <v>291.4721111044919</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.5310119231963</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H15" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1809,19 +1809,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>54.47555601903363</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>26.32882004050054</v>
       </c>
     </row>
     <row r="17">
@@ -1849,19 +1849,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>18.27382026581079</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1903,13 +1903,13 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>323.9918595228955</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2055,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>155.4526127311943</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>223.1498336210771</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2083,22 +2083,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>35.81288263150685</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>26.94389492651069</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2210,7 +2210,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S21" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T21" t="n">
         <v>196.8897623984489</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>43.31785343913975</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2301,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>213.6743229269902</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2329,13 +2329,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>376.184863643924</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>166.6461101577047</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,19 +2526,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>120.7419800545114</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>308.9734542191751</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2563,19 +2563,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,25 +2602,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>322.3111211042057</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2696,7 +2696,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609193</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>117.1560086992563</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>225.0351054580843</v>
@@ -2778,10 +2778,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.553842565068717</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>269.5134569480836</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2839,28 +2839,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0.490928909962322</v>
       </c>
     </row>
     <row r="30">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2961,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>101.780687729549</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>142.630734290631</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3037,19 +3037,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>211.7551093480931</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>26.64360395382583</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,28 +3076,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>1.938553216412018</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3243,10 +3243,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>190.2713935802968</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>81.5045575526884</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3277,10 +3277,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>221.1245127325159</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
@@ -3322,13 +3322,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3429,10 +3429,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>86.11283245544982</v>
       </c>
       <c r="T37" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>190.2713935802968</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>130.1024780662194</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,13 +3550,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
         <v>251.2241675082893</v>
@@ -3565,13 +3565,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>112.1443580694844</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3596,7 +3596,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.5310119231963</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H39" t="n">
         <v>104.3883541553076</v>
@@ -3663,16 +3663,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>162.3364906735235</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3723,13 +3723,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>158.0064513239479</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>26.64360395382583</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>9.693200015578107</v>
+        <v>147.3596012393431</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4024,28 +4024,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>177.2389031129445</v>
+        <v>268.5876485621592</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4185,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>168.7756050755991</v>
       </c>
       <c r="V46" t="n">
-        <v>155.2114886365808</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>720.6083788665362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C2" t="n">
-        <v>720.6083788665362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D2" t="n">
-        <v>720.6083788665362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E2" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F2" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G2" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>21.10891692136039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W2" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X2" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y2" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="3">
@@ -4385,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>655.1273272985679</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>655.1273272985679</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>655.1273272985679</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>495.8898722931124</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>349.3553143199974</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>210.6244889026129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N3" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4433,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>862.8876260635219</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V3" t="n">
-        <v>862.8876260635219</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W3" t="n">
-        <v>862.8876260635219</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X3" t="n">
-        <v>862.8876260635219</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y3" t="n">
-        <v>655.1273272985679</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="4">
@@ -4509,22 +4509,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
         <v>19.28114311021272</v>
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>761.6974622895962</v>
+        <v>513.6311445709973</v>
       </c>
       <c r="C5" t="n">
-        <v>518.2486856454962</v>
+        <v>513.6311445709973</v>
       </c>
       <c r="D5" t="n">
-        <v>274.7999090013961</v>
+        <v>513.6311445709973</v>
       </c>
       <c r="E5" t="n">
-        <v>31.35113235729608</v>
+        <v>513.6311445709973</v>
       </c>
       <c r="F5" t="n">
-        <v>31.35113235729608</v>
+        <v>266.5980815799443</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J5" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K5" t="n">
-        <v>122.2961490211351</v>
+        <v>124.4399474973462</v>
       </c>
       <c r="L5" t="n">
-        <v>302.3720006057937</v>
+        <v>306.8231980260855</v>
       </c>
       <c r="M5" t="n">
-        <v>519.3476278686978</v>
+        <v>526.3662512024591</v>
       </c>
       <c r="N5" t="n">
-        <v>725.2021500759372</v>
+        <v>734.8297429586089</v>
       </c>
       <c r="O5" t="n">
-        <v>874.3971002185853</v>
+        <v>886.4882690646268</v>
       </c>
       <c r="P5" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="T5" t="n">
-        <v>953.9655401424092</v>
+        <v>760.6642075620503</v>
       </c>
       <c r="U5" t="n">
-        <v>953.9655401424092</v>
+        <v>760.6642075620503</v>
       </c>
       <c r="V5" t="n">
-        <v>953.9655401424092</v>
+        <v>760.6642075620503</v>
       </c>
       <c r="W5" t="n">
-        <v>953.9655401424092</v>
+        <v>760.6642075620503</v>
       </c>
       <c r="X5" t="n">
-        <v>953.9655401424092</v>
+        <v>760.6642075620503</v>
       </c>
       <c r="Y5" t="n">
-        <v>953.9655401424092</v>
+        <v>513.6311445709973</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>194.4883050441255</v>
+        <v>353.2555028754739</v>
       </c>
       <c r="C6" t="n">
-        <v>20.03527576299844</v>
+        <v>178.8024735943469</v>
       </c>
       <c r="D6" t="n">
-        <v>20.03527576299844</v>
+        <v>178.8024735943469</v>
       </c>
       <c r="E6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J6" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>67.76223939580007</v>
       </c>
       <c r="L6" t="n">
-        <v>248.2447175439888</v>
+        <v>67.76223939580007</v>
       </c>
       <c r="M6" t="n">
-        <v>486.8488635328713</v>
+        <v>309.879344433331</v>
       </c>
       <c r="N6" t="n">
-        <v>725.4530095217538</v>
+        <v>551.996449470862</v>
       </c>
       <c r="O6" t="n">
-        <v>964.0571555106362</v>
+        <v>794.113554508393</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="Q6" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>877.5769898880284</v>
       </c>
       <c r="S6" t="n">
-        <v>813.9127174732475</v>
+        <v>877.5769898880284</v>
       </c>
       <c r="T6" t="n">
-        <v>813.9127174732475</v>
+        <v>675.4225686792214</v>
       </c>
       <c r="U6" t="n">
-        <v>813.9127174732475</v>
+        <v>588.4076111072166</v>
       </c>
       <c r="V6" t="n">
-        <v>813.9127174732475</v>
+        <v>353.2555028754739</v>
       </c>
       <c r="W6" t="n">
-        <v>570.4639408291474</v>
+        <v>353.2555028754739</v>
       </c>
       <c r="X6" t="n">
-        <v>570.4639408291474</v>
+        <v>353.2555028754739</v>
       </c>
       <c r="Y6" t="n">
-        <v>362.7036420641935</v>
+        <v>353.2555028754739</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="L7" t="n">
-        <v>46.5952681179257</v>
+        <v>47.85425064936706</v>
       </c>
       <c r="M7" t="n">
-        <v>85.78330631014788</v>
+        <v>88.07040250863014</v>
       </c>
       <c r="N7" t="n">
-        <v>129.4741569655842</v>
+        <v>132.7649205860522</v>
       </c>
       <c r="O7" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0312465334349</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>953.9655401424092</v>
+        <v>556.9999364092505</v>
       </c>
       <c r="C8" t="n">
-        <v>953.9655401424092</v>
+        <v>556.9999364092505</v>
       </c>
       <c r="D8" t="n">
-        <v>710.516763498309</v>
+        <v>556.9999364092505</v>
       </c>
       <c r="E8" t="n">
-        <v>710.516763498309</v>
+        <v>556.9999364092505</v>
       </c>
       <c r="F8" t="n">
-        <v>467.067986854209</v>
+        <v>291.0988920136273</v>
       </c>
       <c r="G8" t="n">
-        <v>467.067986854209</v>
+        <v>25.19784761800413</v>
       </c>
       <c r="H8" t="n">
-        <v>223.6192102101089</v>
+        <v>25.19784761800413</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>25.19784761800413</v>
       </c>
       <c r="J8" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="K8" t="n">
-        <v>122.2961490211351</v>
+        <v>135.7250809573684</v>
       </c>
       <c r="L8" t="n">
-        <v>302.3720006057937</v>
+        <v>330.2546714142364</v>
       </c>
       <c r="M8" t="n">
-        <v>519.3476278686978</v>
+        <v>563.3128681098028</v>
       </c>
       <c r="N8" t="n">
-        <v>725.2021500759372</v>
+        <v>785.5101925369336</v>
       </c>
       <c r="O8" t="n">
-        <v>874.3971002185853</v>
+        <v>950.1371873885148</v>
       </c>
       <c r="P8" t="n">
-        <v>964.0571555106362</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>843.9662583320081</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424092</v>
+        <v>843.9662583320081</v>
       </c>
       <c r="U8" t="n">
-        <v>953.9655401424092</v>
+        <v>843.9662583320081</v>
       </c>
       <c r="V8" t="n">
-        <v>953.9655401424092</v>
+        <v>822.9009808048736</v>
       </c>
       <c r="W8" t="n">
-        <v>953.9655401424092</v>
+        <v>822.9009808048736</v>
       </c>
       <c r="X8" t="n">
-        <v>953.9655401424092</v>
+        <v>822.9009808048736</v>
       </c>
       <c r="Y8" t="n">
-        <v>953.9655401424092</v>
+        <v>556.9999364092505</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>104.2786273205085</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="C9" t="n">
-        <v>104.2786273205085</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="D9" t="n">
-        <v>104.2786273205085</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="E9" t="n">
-        <v>104.2786273205085</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="F9" t="n">
-        <v>104.2786273205085</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="G9" t="n">
-        <v>104.2786273205085</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="J9" t="n">
-        <v>19.28114311021272</v>
+        <v>24.95018035683216</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>24.95018035683216</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>265.5537082516947</v>
       </c>
       <c r="M9" t="n">
-        <v>486.8488635328713</v>
+        <v>526.1633218638449</v>
       </c>
       <c r="N9" t="n">
-        <v>725.4530095217538</v>
+        <v>786.7729354759952</v>
       </c>
       <c r="O9" t="n">
-        <v>964.0571555106362</v>
+        <v>1047.185999568487</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="Q9" t="n">
-        <v>964.0571555106362</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="S9" t="n">
-        <v>790.6398109613051</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="T9" t="n">
-        <v>790.6398109613051</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="U9" t="n">
-        <v>790.6398109613051</v>
+        <v>824.7478070488723</v>
       </c>
       <c r="V9" t="n">
-        <v>555.4877027295624</v>
+        <v>589.5956988171297</v>
       </c>
       <c r="W9" t="n">
-        <v>312.0389260854624</v>
+        <v>335.3583420889281</v>
       </c>
       <c r="X9" t="n">
-        <v>312.0389260854624</v>
+        <v>127.5068418833952</v>
       </c>
       <c r="Y9" t="n">
-        <v>104.2786273205085</v>
+        <v>21.05936271613335</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="H10" t="n">
-        <v>41.77557929797318</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="I10" t="n">
-        <v>41.77557929797318</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="K10" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="L10" t="n">
-        <v>46.5952681179257</v>
+        <v>54.48163939360305</v>
       </c>
       <c r="M10" t="n">
-        <v>85.78330631014788</v>
+        <v>100.1098670955241</v>
       </c>
       <c r="N10" t="n">
-        <v>129.4741569655842</v>
+        <v>150.08777394865</v>
       </c>
       <c r="O10" t="n">
-        <v>153.8134336004835</v>
+        <v>180.2341645716486</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613335</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1491.915471247702</v>
+        <v>1095.244811318329</v>
       </c>
       <c r="C11" t="n">
-        <v>1122.952954307291</v>
+        <v>726.2822943779174</v>
       </c>
       <c r="D11" t="n">
-        <v>1122.952954307291</v>
+        <v>368.0165957711669</v>
       </c>
       <c r="E11" t="n">
-        <v>737.1647017090463</v>
+        <v>368.0165957711669</v>
       </c>
       <c r="F11" t="n">
-        <v>326.1787969194388</v>
+        <v>368.0165957711669</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I11" t="n">
         <v>53.94298182036445</v>
@@ -5044,16 +5044,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
@@ -5065,28 +5065,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T11" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U11" t="n">
-        <v>2642.120401548716</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V11" t="n">
-        <v>2642.120401548716</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W11" t="n">
-        <v>2642.120401548716</v>
+        <v>1871.983983358263</v>
       </c>
       <c r="X11" t="n">
-        <v>2268.654643287636</v>
+        <v>1871.983983358263</v>
       </c>
       <c r="Y11" t="n">
-        <v>1878.515311311824</v>
+        <v>1481.844651382451</v>
       </c>
     </row>
     <row r="12">
@@ -5111,7 +5111,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H12" t="n">
         <v>115.9856282673424</v>
@@ -5123,13 +5123,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L12" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M12" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N12" t="n">
         <v>1748.695370517453</v>
@@ -5144,7 +5144,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S12" t="n">
         <v>2488.762748073963</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>728.1289842064344</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C13" t="n">
-        <v>728.1289842064344</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D13" t="n">
-        <v>578.0123447940987</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E13" t="n">
-        <v>578.0123447940987</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F13" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G13" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H13" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I13" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
         <v>53.94298182036445</v>
@@ -5205,46 +5205,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U13" t="n">
-        <v>728.1289842064344</v>
+        <v>491.2732454397182</v>
       </c>
       <c r="V13" t="n">
-        <v>728.1289842064344</v>
+        <v>491.2732454397182</v>
       </c>
       <c r="W13" t="n">
-        <v>728.1289842064344</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="X13" t="n">
-        <v>728.1289842064344</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="Y13" t="n">
-        <v>728.1289842064344</v>
+        <v>201.8560754027576</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1568.353113282533</v>
+        <v>1226.657559460833</v>
       </c>
       <c r="C14" t="n">
-        <v>1568.353113282533</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="D14" t="n">
-        <v>1210.087414675782</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E14" t="n">
-        <v>1210.087414675782</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F14" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G14" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H14" t="n">
         <v>53.94298182036445</v>
@@ -5278,19 +5278,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
@@ -5302,28 +5302,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T14" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U14" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V14" t="n">
-        <v>2681.187366877849</v>
+        <v>1952.891972992027</v>
       </c>
       <c r="W14" t="n">
-        <v>2328.418711607735</v>
+        <v>1600.123317721913</v>
       </c>
       <c r="X14" t="n">
-        <v>1954.952953346655</v>
+        <v>1226.657559460833</v>
       </c>
       <c r="Y14" t="n">
-        <v>1954.952953346655</v>
+        <v>1226.657559460833</v>
       </c>
     </row>
     <row r="15">
@@ -5348,10 +5348,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I15" t="n">
         <v>53.94298182036445</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.94298182036445</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="C16" t="n">
-        <v>53.94298182036445</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D16" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E16" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F16" t="n">
         <v>53.94298182036445</v>
@@ -5442,46 +5442,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q16" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R16" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S16" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T16" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U16" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V16" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W16" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X16" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y16" t="n">
-        <v>53.94298182036445</v>
+        <v>701.5342164887571</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1219.679656148628</v>
+        <v>1512.612574238668</v>
       </c>
       <c r="C17" t="n">
-        <v>850.7171392082162</v>
+        <v>1143.650057298256</v>
       </c>
       <c r="D17" t="n">
-        <v>850.7171392082162</v>
+        <v>785.3843586915057</v>
       </c>
       <c r="E17" t="n">
-        <v>464.928886609972</v>
+        <v>399.5961060932614</v>
       </c>
       <c r="F17" t="n">
-        <v>53.94298182036445</v>
+        <v>399.5961060932614</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H17" t="n">
         <v>53.94298182036445</v>
@@ -5515,7 +5515,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
         <v>463.9616490733127</v>
@@ -5539,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V17" t="n">
-        <v>2369.884586449641</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W17" t="n">
-        <v>2369.884586449641</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X17" t="n">
-        <v>1996.418828188561</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="Y17" t="n">
-        <v>1606.27949621275</v>
+        <v>1899.21241430279</v>
       </c>
     </row>
     <row r="18">
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C18" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E18" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G18" t="n">
         <v>221.4284102424006</v>
@@ -5615,22 +5615,22 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5679,43 +5679,43 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M19" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>571.1061430638139</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V19" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W19" t="n">
-        <v>281.9325327183818</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X19" t="n">
-        <v>53.94298182036445</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y19" t="n">
         <v>53.94298182036445</v>
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1194.175505447095</v>
+        <v>919.0673236324992</v>
       </c>
       <c r="C20" t="n">
-        <v>825.2129885066831</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D20" t="n">
-        <v>466.9472898999326</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E20" t="n">
-        <v>81.15903730168839</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F20" t="n">
-        <v>81.15903730168839</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G20" t="n">
-        <v>81.15903730168839</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H20" t="n">
         <v>53.94298182036445</v>
@@ -5752,19 +5752,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533142</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
@@ -5779,25 +5779,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T20" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U20" t="n">
-        <v>2697.149091018222</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V20" t="n">
-        <v>2697.149091018222</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W20" t="n">
-        <v>2344.380435748108</v>
+        <v>1695.806495672433</v>
       </c>
       <c r="X20" t="n">
-        <v>1970.914677487028</v>
+        <v>1695.806495672433</v>
       </c>
       <c r="Y20" t="n">
-        <v>1580.775345511217</v>
+        <v>1305.667163696621</v>
       </c>
     </row>
     <row r="21">
@@ -5837,25 +5837,25 @@
         <v>309.190302261463</v>
       </c>
       <c r="L21" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M21" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N21" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O21" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P21" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S21" t="n">
         <v>2488.762748073964</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.69838933464703</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C22" t="n">
-        <v>97.69838933464703</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D22" t="n">
-        <v>97.69838933464703</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E22" t="n">
-        <v>97.69838933464703</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F22" t="n">
-        <v>97.69838933464703</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G22" t="n">
         <v>53.94298182036445</v>
@@ -5949,13 +5949,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W22" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X22" t="n">
-        <v>500.1394333084169</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y22" t="n">
-        <v>279.3468541648867</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1546.944160717209</v>
+        <v>1494.154169929768</v>
       </c>
       <c r="C23" t="n">
-        <v>1177.981643776797</v>
+        <v>1125.191652989356</v>
       </c>
       <c r="D23" t="n">
-        <v>819.715945170047</v>
+        <v>766.9259543826058</v>
       </c>
       <c r="E23" t="n">
-        <v>433.9276925718028</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F23" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H23" t="n">
         <v>53.94298182036445</v>
@@ -5992,16 +5992,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
@@ -6013,28 +6013,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V23" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W23" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X23" t="n">
-        <v>2323.683332757143</v>
+        <v>1494.154169929768</v>
       </c>
       <c r="Y23" t="n">
-        <v>1933.544000781331</v>
+        <v>1494.154169929768</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O24" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P24" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018223</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>391.878965009939</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C25" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D25" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E25" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F25" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G25" t="n">
         <v>53.94298182036445</v>
@@ -6174,25 +6174,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>391.878965009939</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>391.878965009939</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V25" t="n">
-        <v>391.878965009939</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W25" t="n">
-        <v>391.878965009939</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X25" t="n">
-        <v>391.878965009939</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y25" t="n">
-        <v>391.878965009939</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>207.4089578252748</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C26" t="n">
-        <v>207.4089578252748</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D26" t="n">
-        <v>207.4089578252748</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E26" t="n">
-        <v>207.4089578252748</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F26" t="n">
-        <v>207.4089578252748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G26" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H26" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I26" t="n">
         <v>53.94298182036445</v>
@@ -6229,10 +6229,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6250,28 +6250,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S26" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T26" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U26" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V26" t="n">
-        <v>1662.48357412947</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W26" t="n">
-        <v>1309.714918859356</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X26" t="n">
-        <v>984.1481298652084</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y26" t="n">
-        <v>594.0087978893966</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G27" t="n">
         <v>221.4284102424006</v>
@@ -6314,7 +6314,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M27" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
         <v>1748.695370517453</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F28" t="n">
         <v>53.94298182036445</v>
@@ -6408,28 +6408,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064342</v>
+        <v>609.7895814799127</v>
       </c>
       <c r="S28" t="n">
-        <v>513.8405610245969</v>
+        <v>609.7895814799127</v>
       </c>
       <c r="T28" t="n">
-        <v>286.5323736931987</v>
+        <v>382.4813941485145</v>
       </c>
       <c r="U28" t="n">
-        <v>286.5323736931987</v>
+        <v>382.4813941485145</v>
       </c>
       <c r="V28" t="n">
-        <v>286.5323736931987</v>
+        <v>382.4813941485145</v>
       </c>
       <c r="W28" t="n">
-        <v>286.5323736931987</v>
+        <v>382.4813941485145</v>
       </c>
       <c r="X28" t="n">
-        <v>58.54282279518134</v>
+        <v>382.4813941485145</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.94298182036445</v>
+        <v>382.4813941485145</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1491.915471247702</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C29" t="n">
-        <v>1122.952954307291</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="D29" t="n">
-        <v>1122.952954307291</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E29" t="n">
-        <v>737.1647017090463</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F29" t="n">
-        <v>326.1787969194388</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
@@ -6487,28 +6487,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T29" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U29" t="n">
-        <v>2642.120401548716</v>
+        <v>2224.752638628376</v>
       </c>
       <c r="V29" t="n">
-        <v>2642.120401548716</v>
+        <v>1893.689751284805</v>
       </c>
       <c r="W29" t="n">
-        <v>2642.120401548716</v>
+        <v>1540.921096014691</v>
       </c>
       <c r="X29" t="n">
-        <v>2268.654643287636</v>
+        <v>1167.455337753612</v>
       </c>
       <c r="Y29" t="n">
-        <v>1878.515311311824</v>
+        <v>1166.959449965771</v>
       </c>
     </row>
     <row r="30">
@@ -6518,55 +6518,55 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C30" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E30" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M30" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O30" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S30" t="n">
         <v>2488.762748073963</v>
@@ -6581,10 +6581,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X30" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y30" t="n">
         <v>1156.713312237151</v>
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>325.6879402326643</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="C31" t="n">
-        <v>156.7517573047574</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D31" t="n">
-        <v>156.7517573047574</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E31" t="n">
-        <v>156.7517573047574</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F31" t="n">
-        <v>156.7517573047574</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
@@ -6648,25 +6648,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U31" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V31" t="n">
-        <v>728.1289842064342</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="W31" t="n">
-        <v>728.1289842064342</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="X31" t="n">
-        <v>728.1289842064342</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="Y31" t="n">
-        <v>507.3364050629041</v>
+        <v>369.7691122461817</v>
       </c>
     </row>
     <row r="32">
@@ -6676,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>808.0839286340174</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="C32" t="n">
-        <v>439.1214116936057</v>
+        <v>1524.727234344394</v>
       </c>
       <c r="D32" t="n">
-        <v>80.85571308685519</v>
+        <v>1166.461535737644</v>
       </c>
       <c r="E32" t="n">
-        <v>80.85571308685519</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="F32" t="n">
-        <v>80.85571308685519</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G32" t="n">
-        <v>80.85571308685519</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H32" t="n">
-        <v>80.85571308685519</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I32" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
@@ -6724,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T32" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U32" t="n">
-        <v>2642.120401548716</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V32" t="n">
-        <v>2311.057514205145</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W32" t="n">
-        <v>1958.288858935031</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="X32" t="n">
-        <v>1584.823100673951</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="Y32" t="n">
-        <v>1194.683768698139</v>
+        <v>1893.689751284806</v>
       </c>
     </row>
     <row r="33">
@@ -6755,73 +6755,73 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I33" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L33" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M33" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N33" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O33" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P33" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y33" t="n">
         <v>1156.713312237151</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C34" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D34" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E34" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F34" t="n">
         <v>53.94298182036445</v>
@@ -6891,19 +6891,19 @@
         <v>500.820796875036</v>
       </c>
       <c r="U34" t="n">
-        <v>308.6274700262513</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V34" t="n">
-        <v>53.94298182036445</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W34" t="n">
-        <v>53.94298182036445</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X34" t="n">
-        <v>53.94298182036445</v>
+        <v>500.820796875036</v>
       </c>
       <c r="Y34" t="n">
-        <v>53.94298182036445</v>
+        <v>500.820796875036</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1717.512263598976</v>
+        <v>1536.177557778964</v>
       </c>
       <c r="C35" t="n">
-        <v>1348.549746658564</v>
+        <v>1536.177557778964</v>
       </c>
       <c r="D35" t="n">
-        <v>990.2840480518139</v>
+        <v>1177.911859172214</v>
       </c>
       <c r="E35" t="n">
-        <v>604.4957954535696</v>
+        <v>792.1236065739693</v>
       </c>
       <c r="F35" t="n">
-        <v>604.4957954535696</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G35" t="n">
         <v>381.1377017843616</v>
@@ -6937,13 +6937,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533142</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6970,19 +6970,19 @@
         <v>2302.336936304455</v>
       </c>
       <c r="U35" t="n">
-        <v>2048.575150942547</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V35" t="n">
-        <v>1717.512263598976</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W35" t="n">
-        <v>1717.512263598976</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="X35" t="n">
-        <v>1717.512263598976</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="Y35" t="n">
-        <v>1717.512263598976</v>
+        <v>1618.50539369077</v>
       </c>
     </row>
     <row r="36">
@@ -6998,19 +6998,19 @@
         <v>814.044945935956</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E36" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F36" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I36" t="n">
         <v>53.94298182036445</v>
@@ -7071,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036445</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036445</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E37" t="n">
         <v>53.94298182036445</v>
@@ -7122,25 +7122,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064342</v>
+        <v>641.1463251605253</v>
       </c>
       <c r="T37" t="n">
-        <v>500.820796875036</v>
+        <v>641.1463251605253</v>
       </c>
       <c r="U37" t="n">
-        <v>308.6274700262513</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="V37" t="n">
-        <v>53.94298182036445</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="W37" t="n">
-        <v>53.94298182036445</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="X37" t="n">
-        <v>53.94298182036445</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.94298182036445</v>
+        <v>351.9727148150933</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>554.3221432721089</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="C38" t="n">
-        <v>185.3596263316971</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D38" t="n">
-        <v>185.3596263316971</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E38" t="n">
-        <v>185.3596263316971</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F38" t="n">
-        <v>185.3596263316971</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G38" t="n">
-        <v>185.3596263316971</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I38" t="n">
         <v>53.94298182036445</v>
@@ -7177,16 +7177,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
@@ -7198,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T38" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U38" t="n">
-        <v>2388.358616186807</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V38" t="n">
-        <v>2057.295728843236</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W38" t="n">
-        <v>1704.527073573122</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="X38" t="n">
-        <v>1331.061315312042</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="Y38" t="n">
-        <v>940.9219833362306</v>
+        <v>1780.41262192169</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C39" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G39" t="n">
         <v>221.4284102424006</v>
@@ -7253,43 +7253,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L39" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M39" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N39" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O39" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P39" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.94298182036445</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F40" t="n">
         <v>53.94298182036445</v>
@@ -7338,46 +7338,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M40" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>564.1527310008552</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="U40" t="n">
-        <v>564.1527310008552</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="V40" t="n">
-        <v>564.1527310008552</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="W40" t="n">
-        <v>274.7355609638946</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="X40" t="n">
-        <v>274.7355609638946</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.94298182036445</v>
+        <v>667.7988452409105</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>808.0839286340174</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="C41" t="n">
-        <v>439.1214116936057</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D41" t="n">
-        <v>80.85571308685519</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E41" t="n">
-        <v>53.94298182036445</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F41" t="n">
-        <v>53.94298182036445</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J41" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
@@ -7435,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T41" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="U41" t="n">
-        <v>2642.120401548716</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V41" t="n">
-        <v>2311.057514205145</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="W41" t="n">
-        <v>1958.288858935031</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="X41" t="n">
-        <v>1584.823100673951</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="Y41" t="n">
-        <v>1194.683768698139</v>
+        <v>2267.209817970484</v>
       </c>
     </row>
     <row r="42">
@@ -7487,25 +7487,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K42" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615927</v>
       </c>
       <c r="L42" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M42" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N42" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O42" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P42" t="n">
         <v>2525.076107152626</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>211.6471865296041</v>
+        <v>500.8207968750359</v>
       </c>
       <c r="C43" t="n">
-        <v>211.6471865296041</v>
+        <v>500.8207968750359</v>
       </c>
       <c r="D43" t="n">
-        <v>211.6471865296041</v>
+        <v>350.7041574627001</v>
       </c>
       <c r="E43" t="n">
-        <v>63.73409294721102</v>
+        <v>202.791063880307</v>
       </c>
       <c r="F43" t="n">
-        <v>63.73409294721102</v>
+        <v>202.791063880307</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594903</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T43" t="n">
-        <v>500.8207968750362</v>
+        <v>500.8207968750359</v>
       </c>
       <c r="U43" t="n">
-        <v>211.6471865296041</v>
+        <v>500.8207968750359</v>
       </c>
       <c r="V43" t="n">
-        <v>211.6471865296041</v>
+        <v>500.8207968750359</v>
       </c>
       <c r="W43" t="n">
-        <v>211.6471865296041</v>
+        <v>500.8207968750359</v>
       </c>
       <c r="X43" t="n">
-        <v>211.6471865296041</v>
+        <v>500.8207968750359</v>
       </c>
       <c r="Y43" t="n">
-        <v>211.6471865296041</v>
+        <v>500.8207968750359</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>882.8926947117852</v>
+        <v>1995.909162857191</v>
       </c>
       <c r="C44" t="n">
-        <v>882.8926947117852</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D44" t="n">
-        <v>882.8926947117852</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="E44" t="n">
-        <v>882.8926947117852</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F44" t="n">
         <v>471.9067899221776</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
@@ -7672,28 +7672,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T44" t="n">
-        <v>2423.485734520778</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="U44" t="n">
-        <v>2169.72394915887</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V44" t="n">
-        <v>1838.661061815299</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="W44" t="n">
-        <v>1659.631866751719</v>
+        <v>1995.909162857191</v>
       </c>
       <c r="X44" t="n">
-        <v>1659.631866751719</v>
+        <v>1995.909162857191</v>
       </c>
       <c r="Y44" t="n">
-        <v>1269.492534775907</v>
+        <v>1995.909162857191</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C45" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E45" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H45" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J45" t="n">
         <v>129.2001442204943</v>
@@ -7739,31 +7739,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O45" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P45" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K46" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N46" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O46" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>2697.149091018222</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T46" t="n">
-        <v>2697.149091018222</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U46" t="n">
-        <v>2697.149091018222</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V46" t="n">
-        <v>2540.369809567131</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W46" t="n">
-        <v>2250.95263953017</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8060,22 +8060,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>185.2494569035873</v>
       </c>
       <c r="L6" t="n">
-        <v>369.8307175917693</v>
+        <v>136.8385818314783</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>384.6945110063437</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>373.8491954283778</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>385.2788254813442</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>138.9730561082392</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>129.8481964236087</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>382.1386950879875</v>
+        <v>392.8337743093849</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>381.7094952808121</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>130.3625277915348</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>133.6630807868109</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,13 +8771,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>166.6588033951776</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9485,7 +9485,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627889</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9646,7 +9646,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9877,13 +9877,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9962,10 +9962,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747075</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10369,7 +10369,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10606,7 +10606,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10901,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11150,13 +11150,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451766</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>275.0442842992664</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.513533492832</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11387,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22555,22 +22555,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>179.6356836433646</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>10.13979328157633</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22591,7 +22591,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -22609,7 +22609,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -22634,22 +22634,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>12.9487560796932</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,7 +22673,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -22682,19 +22682,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="4">
@@ -22749,10 +22749,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,31 +22783,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>192.3884445891957</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>162.313313380569</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>170.7252358559294</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>339.3235460419765</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>209.9064962068211</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>10.69576364311372</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,19 +22828,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>8.395781178313161</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>148.9413660216818</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>208.6835142066282</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>7.620342298165212</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>251.3444713639914</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>141.6752062949112</v>
       </c>
     </row>
     <row r="6">
@@ -22862,7 +22862,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -22871,19 +22871,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>137.3356148920818</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>112.1591249337519</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>89.12455904281175</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>23.04017744682304</v>
+        <v>171.5363898835276</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>139.7960541984315</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22950,25 +22950,25 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>9.352396981471117</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>167.9843543597988</v>
       </c>
       <c r="H7" t="n">
-        <v>162.2271725074396</v>
+        <v>162.1682702466266</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>155.2512431493756</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>92.89079271141465</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>21.49978743611831</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,22 +22983,22 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>1.920177260816417</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>85.60728995481479</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>176.9955073465141</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>223.9011423785076</v>
       </c>
       <c r="T7" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9172826158254</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>286.3186679929276</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23026,25 +23026,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>143.6340117900446</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>151.9681874521645</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I8" t="n">
-        <v>8.181203141508689</v>
+        <v>206.9091621893709</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23068,19 +23068,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>144.0576027644701</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>306.8976337182717</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>122.9959047043867</v>
       </c>
     </row>
     <row r="9">
@@ -23114,16 +23114,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H9" t="n">
-        <v>28.08793486830369</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>87.69233988828962</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>97.08446202703753</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>100.2996914017151</v>
       </c>
     </row>
     <row r="10">
@@ -23193,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H10" t="n">
-        <v>51.30969674795439</v>
+        <v>161.8582038473137</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>154.2024705022107</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>90.42516245839141</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>17.44799951871611</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,28 +23220,28 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>82.68702246598916</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>175.4274210366964</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>223.2933741908973</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>227.7682732010226</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>286.3167657450791</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>126.6879292296158</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23263,22 +23263,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>144.2707130727114</v>
+        <v>254.7826084543618</v>
       </c>
       <c r="H11" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,25 +23305,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23421,25 +23421,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>130.2386507606556</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
         <v>212.1455389500189</v>
@@ -23472,13 +23472,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>51.79469286292885</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
         <v>151.9313162448613</v>
@@ -23542,19 +23542,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>311.9501515711652</v>
+        <v>36.28014736564302</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>167.3098022590509</v>
@@ -23673,10 +23673,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>231.8063182229441</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23721,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>192.2558333115942</v>
       </c>
     </row>
     <row r="17">
@@ -23737,19 +23737,19 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>395.5103497549842</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>151.9313162448613</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
@@ -23791,13 +23791,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>3.760398947239423</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23913,7 +23913,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>69.58249272688994</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>63.37316471551392</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23971,22 +23971,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>329.4600091395007</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>296.9788778378464</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
         <v>151.9313162448613</v>
@@ -24019,13 +24019,13 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24034,7 +24034,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>123.9919488199112</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
         <v>156.1708888417951</v>
@@ -24189,13 +24189,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>4.910330425104604</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24217,13 +24217,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>30.69118209778748</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>151.9313162448613</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>203.0849905207644</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24366,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
         <v>156.1708888417951</v>
@@ -24414,19 +24414,19 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>104.2931254035729</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>73.76038744430548</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24451,19 +24451,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,25 +24490,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>47.41997957426338</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24612,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>167.3098022590509</v>
@@ -24648,10 +24648,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>29.5091832809016</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>214.0308107870261</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24679,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>144.2707130727114</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
@@ -24727,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>385.7470097460912</v>
       </c>
     </row>
     <row r="30">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24849,10 +24849,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>65.52911452950187</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
         <v>156.1708888417951</v>
@@ -24888,7 +24888,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>225.0351054580843</v>
@@ -24897,7 +24897,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>109.506909033197</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24906,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24925,19 +24925,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>170.1752607241687</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>125.2877122910354</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>177.8934269655253</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>167.3098022590509</v>
@@ -25131,10 +25131,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>96.01048066168096</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>301.2292841107922</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25165,10 +25165,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>192.6596572882791</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25210,13 +25210,13 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25317,10 +25317,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25362,16 +25362,16 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
-        <v>212.1455389500189</v>
+        <v>126.0327064945691</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>96.01048066168096</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>193.8202946981378</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,13 +25438,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25453,13 +25453,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>237.0966106479286</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25551,16 +25551,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>167.3098022590509</v>
@@ -25572,7 +25572,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>62.69861478456082</v>
+        <v>165.3082678822158</v>
       </c>
       <c r="U40" t="n">
         <v>286.2818742419777</v>
@@ -25611,13 +25611,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>207.2664404470597</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>355.2867661184359</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25791,7 +25791,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,16 +25800,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>157.6166022434728</v>
+        <v>19.95020101970781</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,10 +25830,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25864,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>172.0020656044685</v>
+        <v>80.65332015525382</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26043,10 +26043,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,28 +26067,28 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>117.5062691663786</v>
       </c>
       <c r="V46" t="n">
-        <v>96.92615468724722</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>482163.6750662234</v>
+        <v>482163.6750662233</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>482163.6750662234</v>
+        <v>485250.2066126675</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>482163.6750662234</v>
+        <v>501254.8875917587</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>810543.9642182667</v>
+        <v>810543.9642182665</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>810543.9642182668</v>
+        <v>810543.9642182665</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>810543.9642182668</v>
+        <v>810543.9642182665</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>810543.9642182669</v>
+        <v>810543.9642182664</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>810543.9642182665</v>
+        <v>810543.9642182667</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>810543.9642182665</v>
+        <v>810543.9642182669</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>810543.9642182667</v>
+        <v>810543.9642182668</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>810543.9642182668</v>
+        <v>810543.9642182665</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>810543.9642182665</v>
+        <v>810543.9642182667</v>
       </c>
     </row>
   </sheetData>
@@ -26316,10 +26316,10 @@
         <v>141236.5716516325</v>
       </c>
       <c r="C2" t="n">
-        <v>141236.5716516325</v>
+        <v>142222.1657638405</v>
       </c>
       <c r="D2" t="n">
-        <v>141236.5716516325</v>
+        <v>147339.1279972481</v>
       </c>
       <c r="E2" t="n">
         <v>245779.7185133939</v>
@@ -26340,13 +26340,13 @@
         <v>245779.7185133939</v>
       </c>
       <c r="K2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.7185133938</v>
       </c>
       <c r="L2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.7185133938</v>
       </c>
       <c r="M2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.7185133938</v>
       </c>
       <c r="N2" t="n">
         <v>245779.7185133939</v>
@@ -26355,7 +26355,7 @@
         <v>245779.7185133939</v>
       </c>
       <c r="P2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.7185133938</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4491.824968753434</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>22364.98695753564</v>
       </c>
       <c r="E3" t="n">
-        <v>432846.1740429961</v>
+        <v>407720.4376835742</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>913.2558024571108</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>4727.563118847463</v>
       </c>
       <c r="M3" t="n">
-        <v>107973.3606740581</v>
+        <v>102434.1176906351</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,19 +26420,19 @@
         <v>42017.42535589615</v>
       </c>
       <c r="C4" t="n">
-        <v>42017.42535589615</v>
+        <v>42033.93659314635</v>
       </c>
       <c r="D4" t="n">
-        <v>42017.42535589615</v>
+        <v>42100.10620798598</v>
       </c>
       <c r="E4" t="n">
         <v>44802.65617556861</v>
       </c>
       <c r="F4" t="n">
+        <v>44802.6561755686</v>
+      </c>
+      <c r="G4" t="n">
         <v>44802.65617556861</v>
-      </c>
-      <c r="G4" t="n">
-        <v>44802.6561755686</v>
       </c>
       <c r="H4" t="n">
         <v>44802.65617556861</v>
@@ -26441,10 +26441,10 @@
         <v>44802.65617556861</v>
       </c>
       <c r="J4" t="n">
-        <v>44802.65617556861</v>
+        <v>44802.6561755686</v>
       </c>
       <c r="K4" t="n">
-        <v>44802.65617556861</v>
+        <v>44802.6561755686</v>
       </c>
       <c r="L4" t="n">
         <v>44802.65617556861</v>
@@ -26453,13 +26453,13 @@
         <v>44802.65617556861</v>
       </c>
       <c r="N4" t="n">
-        <v>44802.6561755686</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="O4" t="n">
         <v>44802.65617556861</v>
       </c>
       <c r="P4" t="n">
-        <v>44802.6561755686</v>
+        <v>44802.65617556861</v>
       </c>
     </row>
     <row r="5">
@@ -26472,10 +26472,10 @@
         <v>48281.26876376167</v>
       </c>
       <c r="C5" t="n">
-        <v>48281.26876376167</v>
+        <v>48577.10433863014</v>
       </c>
       <c r="D5" t="n">
-        <v>48281.26876376167</v>
+        <v>50134.40740683336</v>
       </c>
       <c r="E5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-29831.553999573</v>
+        <v>-42049.56461961346</v>
       </c>
       <c r="C6" t="n">
-        <v>50937.87753197473</v>
+        <v>34959.26536751765</v>
       </c>
       <c r="D6" t="n">
-        <v>50937.87753197473</v>
+        <v>20880.5907075359</v>
       </c>
       <c r="E6" t="n">
-        <v>-281100.5897685803</v>
+        <v>-262043.2671549775</v>
       </c>
       <c r="F6" t="n">
-        <v>151745.5842744157</v>
+        <v>145677.1705285966</v>
       </c>
       <c r="G6" t="n">
-        <v>151745.5842744159</v>
+        <v>145677.1705285966</v>
       </c>
       <c r="H6" t="n">
-        <v>151745.5842744158</v>
+        <v>145677.1705285966</v>
       </c>
       <c r="I6" t="n">
-        <v>151745.5842744159</v>
+        <v>145677.1705285966</v>
       </c>
       <c r="J6" t="n">
-        <v>88685.64167530958</v>
+        <v>82617.22792949041</v>
       </c>
       <c r="K6" t="n">
-        <v>151745.5842744158</v>
+        <v>144763.9147261395</v>
       </c>
       <c r="L6" t="n">
-        <v>151745.5842744159</v>
+        <v>140949.6074097491</v>
       </c>
       <c r="M6" t="n">
-        <v>43772.22360035773</v>
+        <v>43243.0528379614</v>
       </c>
       <c r="N6" t="n">
-        <v>151745.5842744159</v>
+        <v>145677.1705285966</v>
       </c>
       <c r="O6" t="n">
-        <v>151745.5842744158</v>
+        <v>145677.1705285966</v>
       </c>
       <c r="P6" t="n">
-        <v>151745.5842744159</v>
+        <v>145677.1705285966</v>
       </c>
     </row>
   </sheetData>
@@ -26740,19 +26740,19 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>23.01338268678962</v>
       </c>
       <c r="E3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="F3" t="n">
         <v>377.7436642170867</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>377.7436642170866</v>
-      </c>
-      <c r="G3" t="n">
-        <v>377.7436642170867</v>
       </c>
       <c r="H3" t="n">
         <v>377.7436642170866</v>
@@ -26773,13 +26773,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
     </row>
     <row r="4">
@@ -26792,10 +26792,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>241.0142888776591</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="D4" t="n">
-        <v>241.0142888776591</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="E4" t="n">
         <v>674.2872727545556</v>
@@ -26816,7 +26816,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="L4" t="n">
         <v>674.2872727545556</v>
@@ -26828,10 +26828,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
     </row>
   </sheetData>
@@ -26962,13 +26962,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>19.3395197935473</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170867</v>
+        <v>354.730281530297</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>3.548443483483339</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>18.67930159052449</v>
       </c>
       <c r="E4" t="n">
-        <v>433.2729838768965</v>
+        <v>411.0452388028887</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>3.548443483483226</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>18.6793015905246</v>
       </c>
       <c r="M4" t="n">
-        <v>433.2729838768965</v>
+        <v>411.0452388028887</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>3.548443483483339</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>18.67930159052449</v>
       </c>
       <c r="M4" t="n">
-        <v>433.2729838768965</v>
+        <v>411.0452388028887</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.01476929806328569</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>0.1512560737906247</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.5693933635848223</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1.253525711498795</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1.878710098517679</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>2.330706004121959</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>2.593359508554916</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>2.635322776677227</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>2.488460569060429</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>2.123843523123063</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1.594918036231644</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>0.9277519194678708</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>0.3365553796171231</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>0.06465260227203316</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>0.001181543845062855</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.007902271128860838</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>0.07631930274452442</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>0.2720738086033228</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>1.276043491891533</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.715797948395859</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>2.002255276817064</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>2.05524901609789</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.880151324242605</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>1.508987194773435</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>1.008717977782306</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>0.4906339916673424</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>0.1467812203102001</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>0.03185169810273293</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>0.000519886258477687</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.006624998659945165</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>0.05890226081296706</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>0.1992317778827147</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>0.4683874052581232</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>0.7697043897645381</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>0.9849566189522114</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.038498653576677</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1.013805476753246</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>0.936413446952977</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>0.8012634742900949</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>0.5547532968795902</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>0.2978840306553526</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>0.1154556584646807</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>0.02830681245612934</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>0.0003613635632697367</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.09251611130367678</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>0.94748062488878</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>3.566727381035002</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>7.852189301760444</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>11.76839629324508</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>14.59973623455499</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>16.24501962895175</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>16.50788103019332</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>15.58792394841738</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>13.30393245060786</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544932</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>5.811515176679592</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>2.108210886332537</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>0.4049892772318453</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>0.00740128890429414</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>0.04950048351498144</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>0.4780704592104787</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1.704292963125458</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>4.676710155246559</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>7.993242550750314</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>10.74790103688226</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>12.54229356430034</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>12.87425075418809</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>11.77742425104034</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>9.452421277523079</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>6.318693299210613</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>3.073372125605603</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>0.9194497705523959</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>0.1995216857467891</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>0.00325661075756457</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.04149954254994848</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.3689686601259058</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1.248004425047542</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>2.934017658281358</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>4.821492307166741</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>6.169850171471433</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>6.505241928988742</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>6.35056181584803</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>5.865771705150903</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>5.019181037131949</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>3.475020785705232</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1.865970340473138</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>0.723223846075011</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>0.1773162272588708</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>0.002263611411815374</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31758,19 +31758,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L11" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338304</v>
@@ -31785,13 +31785,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I12" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31858,22 +31858,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S12" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I13" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
         <v>79.14039391302239</v>
@@ -31934,16 +31934,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P13" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
@@ -31989,46 +31989,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N14" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q14" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I15" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32095,22 +32095,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32171,22 +32171,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U16" t="n">
         <v>0.0371551145131561</v>
@@ -32232,19 +32232,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L17" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N17" t="n">
         <v>270.9617944338304</v>
@@ -32259,13 +32259,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I18" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32332,22 +32332,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q18" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S18" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I19" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
         <v>79.14039391302239</v>
@@ -32408,16 +32408,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P19" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
@@ -33891,19 +33891,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L38" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N38" t="n">
         <v>270.9617944338304</v>
@@ -33918,13 +33918,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I39" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33991,22 +33991,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q39" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S39" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I40" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
         <v>79.14039391302239</v>
@@ -34067,16 +34067,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P40" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
@@ -34122,46 +34122,46 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J41" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L41" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N41" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I42" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K42" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L42" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M42" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N42" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O42" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q42" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034983</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644443</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M43" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N43" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S43" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,46 +34359,46 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L44" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N44" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q44" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I45" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34465,22 +34465,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q45" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34541,22 +34541,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U46" t="n">
         <v>0.0371551145131561</v>
@@ -34780,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>104.0555615261842</v>
+        <v>105.9342716247019</v>
       </c>
       <c r="L5" t="n">
-        <v>181.8947995804632</v>
+        <v>184.2255055845852</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655598</v>
+        <v>221.7606597741147</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153932</v>
+        <v>210.5691835920705</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>153.1904304101191</v>
       </c>
       <c r="P5" t="n">
-        <v>90.5657124162131</v>
+        <v>92.68955593933616</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>48.68406142111987</v>
       </c>
       <c r="L6" t="n">
-        <v>231.276337811895</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>185.9973484203803</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35099,16 +35099,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>27.59002526031614</v>
+        <v>28.57498187926835</v>
       </c>
       <c r="M7" t="n">
-        <v>39.58387696184059</v>
+        <v>40.62237561541726</v>
       </c>
       <c r="N7" t="n">
-        <v>44.13217237922859</v>
+        <v>45.14597785598184</v>
       </c>
       <c r="O7" t="n">
-        <v>24.58512791403967</v>
+        <v>25.52154136099265</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>115.8239578194293</v>
       </c>
       <c r="L8" t="n">
-        <v>181.8947995804632</v>
+        <v>196.4945358150182</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655598</v>
+        <v>235.4123198945115</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153932</v>
+        <v>224.4417418455866</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>166.289893789476</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>103.869644866821</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>3.930118828988702</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>243.0338665604673</v>
       </c>
       <c r="M9" t="n">
-        <v>240.0046611659691</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>263.0434990833254</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>5.840541654727605</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35336,19 +35336,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>27.59002526031614</v>
+        <v>33.75987543178757</v>
       </c>
       <c r="M10" t="n">
-        <v>39.58387696184059</v>
+        <v>46.08911889082933</v>
       </c>
       <c r="N10" t="n">
-        <v>44.13217237922859</v>
+        <v>50.48273419507662</v>
       </c>
       <c r="O10" t="n">
-        <v>24.58512791403967</v>
+        <v>30.45089961919058</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.297740302025437</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K11" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
         <v>406.5635087530452</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K12" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M12" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
         <v>173.8110948137341</v>
@@ -35646,25 +35646,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K14" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q14" t="n">
         <v>153.9975062898689</v>
@@ -35737,16 +35737,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q15" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
@@ -35822,7 +35822,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K17" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
         <v>406.5635087530452</v>
@@ -35974,16 +35974,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>130.3926104730626</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K20" t="n">
         <v>297.2230414343419</v>
@@ -36205,7 +36205,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L21" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307155</v>
       </c>
       <c r="M21" t="n">
         <v>529.4413268262938</v>
@@ -36220,7 +36220,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N23" t="n">
         <v>478.8956552492236</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36457,7 +36457,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>116.937228518131</v>
       </c>
       <c r="K26" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343417</v>
       </c>
       <c r="L26" t="n">
         <v>421.5361394435301</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N26" t="n">
         <v>478.8956552492236</v>
@@ -36682,10 +36682,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M27" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K30" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L30" t="n">
         <v>408.7029475713857</v>
@@ -36931,7 +36931,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37089,7 +37089,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q32" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K33" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713857</v>
@@ -37168,7 +37168,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K35" t="n">
         <v>297.2230414343419</v>
@@ -37326,7 +37326,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q35" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37542,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K38" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
         <v>406.5635087530452</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L39" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M39" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,25 +37779,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K41" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q41" t="n">
         <v>153.9975062898689</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K42" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M42" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355132</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P42" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
         <v>173.8110948137341</v>
@@ -37940,13 +37940,13 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M43" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N43" t="n">
         <v>148.370846145888</v>
@@ -37955,7 +37955,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38016,25 +38016,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060961</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q44" t="n">
         <v>153.9975062898689</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38107,16 +38107,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38192,7 +38192,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>497537.1536522537</v>
+        <v>558271.8411387408</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>335414.3901624706</v>
+        <v>337002.2430554241</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10905804.67830212</v>
+        <v>10947499.6809952</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8445301.612181708</v>
+        <v>8424682.894232525</v>
       </c>
     </row>
     <row r="11">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="C2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E2" t="n">
-        <v>202.2946864288972</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>160.4442220756123</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -803,10 +803,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>244.5627323611424</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>244.5627323611424</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>215.4108546636941</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>244.5627323611424</v>
+        <v>230.2038249569697</v>
       </c>
     </row>
     <row r="6">
@@ -977,19 +977,19 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1022,22 +1022,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>99.6672001609758</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1328769967189</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>86.1448079962848</v>
+        <v>84.96471228424694</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>137.0815656650981</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>263.2420339516669</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>263.2420339516669</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>4.097100052852073</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>206.9118586999128</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>20.85462475186318</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>263.2420339516669</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1268,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9381254702172</v>
+        <v>49.3111039422953</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>105.3830043755893</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>159.8350691069752</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>159.0015615664332</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1417,16 +1417,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>98.08828121259606</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,10 +1539,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1581,16 +1581,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>41.03250833502995</v>
       </c>
       <c r="U13" t="n">
-        <v>234.4871813790489</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>343.5781897591197</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>413.784170020795</v>
@@ -1663,19 +1663,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>291.4721111044919</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>80.30846669433868</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.32882004050054</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>18.27382026581079</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>178.362962618478</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2007,13 +2007,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>161.2620823710465</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2064,13 +2064,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>223.1498336210771</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,16 +2083,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>35.81288263150685</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>413.784170020795</v>
@@ -2128,13 +2128,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.2241675082893</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>222.7284760838027</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>142.630734290631</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2301,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>213.6743229269902</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2323,19 +2323,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
@@ -2374,7 +2374,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>166.6461101577047</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>288.01514568232</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2481,13 +2481,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>14.5968903908887</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>308.9734542191751</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>252.5568099896524</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2572,7 +2572,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2602,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>117.1560086992563</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>0.4909289099626877</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.490928909962322</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2891,7 +2891,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2955,16 +2955,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>59.72683757586863</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>142.630734290631</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3034,13 +3034,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>211.7551093480931</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>413.784170020795</v>
@@ -3049,7 +3049,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,22 +3076,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>39.06090745383087</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1.938553216412018</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>89.06613335611783</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>81.5045575526884</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3328,13 +3328,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>223.5357045444854</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3429,10 +3429,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3474,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>86.11283245544982</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3505,13 +3505,13 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3520,10 +3520,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>5.715437367179404</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,25 +3550,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>112.1443580694844</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3663,13 +3663,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>84.84244993117485</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>59.72683757586846</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3742,16 +3742,16 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>158.0064513239479</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>413.784170020795</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>207.2969004406319</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.4222199825082</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3900,10 +3900,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>83.82953530753691</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>147.3596012393431</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
         <v>225.0351054580843</v>
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -4024,28 +4024,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>268.5876485621592</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>225.4603876057579</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S46" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>22.11041309544151</v>
       </c>
       <c r="U46" t="n">
-        <v>168.7756050755991</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C2" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D2" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E2" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
         <v>19.28114311021272</v>
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4415,10 +4415,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>234.810827406191</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N3" t="n">
         <v>473.4149733950735</v>
@@ -4433,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>700.8227552800752</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>498.6361606388412</v>
       </c>
       <c r="U3" t="n">
-        <v>735.8335372470253</v>
+        <v>498.6361606388412</v>
       </c>
       <c r="V3" t="n">
-        <v>500.6814290152826</v>
+        <v>263.4840524070985</v>
       </c>
       <c r="W3" t="n">
-        <v>257.2326523711826</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X3" t="n">
-        <v>49.38115216564972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="4">
@@ -4521,10 +4521,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
         <v>19.28114311021272</v>
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>513.6311445709973</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C5" t="n">
-        <v>513.6311445709973</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D5" t="n">
-        <v>513.6311445709973</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
-        <v>513.6311445709973</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>266.5980815799443</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>124.4399474973462</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>306.8231980260855</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>526.3662512024591</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>734.8297429586089</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>886.4882690646268</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>978.2509294445696</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>978.2509294445696</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>978.2509294445696</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>978.2509294445696</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>760.6642075620503</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U5" t="n">
-        <v>760.6642075620503</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V5" t="n">
-        <v>760.6642075620503</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W5" t="n">
-        <v>760.6642075620503</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X5" t="n">
-        <v>760.6642075620503</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="Y5" t="n">
-        <v>513.6311445709973</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>353.2555028754739</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="C6" t="n">
-        <v>178.8024735943469</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="D6" t="n">
-        <v>178.8024735943469</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="E6" t="n">
-        <v>19.56501858889139</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F6" t="n">
-        <v>19.56501858889139</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G6" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>67.76223939580007</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>67.76223939580007</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>309.879344433331</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N6" t="n">
-        <v>551.996449470862</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>794.113554508393</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>978.2509294445696</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
-        <v>978.2509294445696</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>877.5769898880284</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>877.5769898880284</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>675.4225686792214</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U6" t="n">
-        <v>588.4076111072166</v>
+        <v>401.4607451716973</v>
       </c>
       <c r="V6" t="n">
-        <v>353.2555028754739</v>
+        <v>401.4607451716973</v>
       </c>
       <c r="W6" t="n">
-        <v>353.2555028754739</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="X6" t="n">
-        <v>353.2555028754739</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="Y6" t="n">
-        <v>353.2555028754739</v>
+        <v>158.0119685275972</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>158.0312465334349</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>158.0312465334349</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>158.0312465334349</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>47.85425064936706</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>88.07040250863014</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>132.7649205860522</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>158.0312465334349</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
-        <v>158.0312465334349</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>158.0312465334349</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>158.0312465334349</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>158.0312465334349</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>158.0312465334349</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>158.0312465334349</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>556.9999364092505</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C8" t="n">
-        <v>556.9999364092505</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D8" t="n">
-        <v>556.9999364092505</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E8" t="n">
-        <v>556.9999364092505</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F8" t="n">
-        <v>291.0988920136273</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G8" t="n">
-        <v>25.19784761800413</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>25.19784761800413</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>25.19784761800413</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>135.7250809573684</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>330.2546714142364</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>563.3128681098028</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>785.5101925369336</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>950.1371873885148</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>1052.968135806668</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>1052.968135806668</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>1052.968135806668</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S8" t="n">
-        <v>843.9662583320081</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T8" t="n">
-        <v>843.9662583320081</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U8" t="n">
-        <v>843.9662583320081</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V8" t="n">
-        <v>822.9009808048736</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W8" t="n">
-        <v>822.9009808048736</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X8" t="n">
-        <v>822.9009808048736</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y8" t="n">
-        <v>556.9999364092505</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>21.05936271613335</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C9" t="n">
-        <v>21.05936271613335</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>21.05936271613335</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>21.05936271613335</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>21.05936271613335</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>21.05936271613335</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>21.05936271613335</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>21.05936271613335</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
-        <v>24.95018035683216</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>24.95018035683216</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>265.5537082516947</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>526.1633218638449</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>786.7729354759952</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O9" t="n">
-        <v>1047.185999568487</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>1052.968135806668</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
-        <v>1052.968135806668</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>1052.968135806668</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>1052.968135806668</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>1052.968135806668</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>824.7478070488723</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="V9" t="n">
-        <v>589.5956988171297</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W9" t="n">
-        <v>335.3583420889281</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X9" t="n">
-        <v>127.5068418833952</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y9" t="n">
-        <v>21.05936271613335</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>54.48163939360305</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>100.1098670955241</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>150.08777394865</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>180.2341645716486</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>182.5089274706538</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>182.5089274706538</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>182.5089274706538</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>182.5089274706538</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>182.5089274706538</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>182.5089274706538</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>182.5089274706538</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1095.244811318329</v>
+        <v>1405.321187657107</v>
       </c>
       <c r="C11" t="n">
-        <v>726.2822943779174</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D11" t="n">
-        <v>368.0165957711669</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E11" t="n">
-        <v>368.0165957711669</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F11" t="n">
-        <v>368.0165957711669</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G11" t="n">
         <v>207.4089578252748</v>
@@ -5047,7 +5047,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5065,28 +5065,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T11" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U11" t="n">
-        <v>2224.752638628377</v>
+        <v>2148.229174903033</v>
       </c>
       <c r="V11" t="n">
-        <v>2224.752638628377</v>
+        <v>2148.229174903033</v>
       </c>
       <c r="W11" t="n">
-        <v>1871.983983358263</v>
+        <v>1795.460519632919</v>
       </c>
       <c r="X11" t="n">
-        <v>1871.983983358263</v>
+        <v>1795.460519632919</v>
       </c>
       <c r="Y11" t="n">
-        <v>1481.844651382451</v>
+        <v>1405.321187657107</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C12" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E12" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H12" t="n">
         <v>115.9856282673424</v>
@@ -5120,13 +5120,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K12" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L12" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M12" t="n">
         <v>1194.968834417902</v>
@@ -5144,19 +5144,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W12" t="n">
         <v>1572.325111207638</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>201.8560754027576</v>
+        <v>686.6820060902423</v>
       </c>
       <c r="C13" t="n">
-        <v>201.8560754027576</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="D13" t="n">
-        <v>201.8560754027576</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E13" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F13" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G13" t="n">
         <v>53.94298182036445</v>
@@ -5229,22 +5229,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064342</v>
+        <v>686.6820060902423</v>
       </c>
       <c r="U13" t="n">
-        <v>491.2732454397182</v>
+        <v>686.6820060902423</v>
       </c>
       <c r="V13" t="n">
-        <v>491.2732454397182</v>
+        <v>686.6820060902423</v>
       </c>
       <c r="W13" t="n">
-        <v>201.8560754027576</v>
+        <v>686.6820060902423</v>
       </c>
       <c r="X13" t="n">
-        <v>201.8560754027576</v>
+        <v>686.6820060902423</v>
       </c>
       <c r="Y13" t="n">
-        <v>201.8560754027576</v>
+        <v>686.6820060902423</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1226.657559460833</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="C14" t="n">
-        <v>857.6950425204218</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D14" t="n">
-        <v>857.6950425204218</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E14" t="n">
-        <v>471.9067899221776</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F14" t="n">
         <v>471.9067899221776</v>
@@ -5311,19 +5311,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U14" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V14" t="n">
-        <v>1952.891972992027</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W14" t="n">
-        <v>1600.123317721913</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X14" t="n">
-        <v>1226.657559460833</v>
+        <v>1620.08070321196</v>
       </c>
       <c r="Y14" t="n">
-        <v>1226.657559460833</v>
+        <v>1229.941371236149</v>
       </c>
     </row>
     <row r="15">
@@ -5375,7 +5375,7 @@
         <v>2231.815593035061</v>
       </c>
       <c r="P15" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018222</v>
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>519.8857516585174</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C16" t="n">
-        <v>350.9495687306105</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D16" t="n">
-        <v>200.8329293182748</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E16" t="n">
         <v>200.8329293182748</v>
@@ -5460,28 +5460,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064344</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="T16" t="n">
-        <v>728.1289842064344</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="U16" t="n">
-        <v>728.1289842064344</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="V16" t="n">
-        <v>728.1289842064344</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="W16" t="n">
-        <v>728.1289842064344</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="X16" t="n">
-        <v>728.1289842064344</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="Y16" t="n">
-        <v>701.5342164887571</v>
+        <v>498.8626623130036</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1512.612574238668</v>
+        <v>1791.109440255352</v>
       </c>
       <c r="C17" t="n">
-        <v>1143.650057298256</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D17" t="n">
-        <v>785.3843586915057</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E17" t="n">
-        <v>399.5961060932614</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F17" t="n">
-        <v>399.5961060932614</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G17" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I17" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5539,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S17" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T17" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U17" t="n">
-        <v>2642.120401548716</v>
+        <v>2122.172327598922</v>
       </c>
       <c r="V17" t="n">
-        <v>2642.120401548716</v>
+        <v>1791.109440255352</v>
       </c>
       <c r="W17" t="n">
-        <v>2289.351746278601</v>
+        <v>1791.109440255352</v>
       </c>
       <c r="X17" t="n">
-        <v>2289.351746278601</v>
+        <v>1791.109440255352</v>
       </c>
       <c r="Y17" t="n">
-        <v>1899.21241430279</v>
+        <v>1791.109440255352</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I18" t="n">
         <v>53.94298182036445</v>
@@ -5615,22 +5615,22 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036445</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036445</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F19" t="n">
         <v>53.94298182036445</v>
@@ -5700,25 +5700,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T19" t="n">
-        <v>728.1289842064342</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="U19" t="n">
-        <v>728.1289842064342</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="V19" t="n">
-        <v>728.1289842064342</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="W19" t="n">
-        <v>502.7251118619119</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="X19" t="n">
-        <v>274.7355609638946</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.94298182036445</v>
+        <v>350.9495687306105</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>919.0673236324992</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="C20" t="n">
-        <v>882.8926947117852</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="D20" t="n">
-        <v>882.8926947117852</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E20" t="n">
-        <v>882.8926947117852</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F20" t="n">
         <v>471.9067899221776</v>
@@ -5752,19 +5752,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
@@ -5776,28 +5776,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T20" t="n">
-        <v>2302.336936304455</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U20" t="n">
-        <v>2048.575150942547</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V20" t="n">
-        <v>2048.575150942547</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W20" t="n">
-        <v>1695.806495672433</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="X20" t="n">
-        <v>1695.806495672433</v>
+        <v>1634.434214560355</v>
       </c>
       <c r="Y20" t="n">
-        <v>1305.667163696621</v>
+        <v>1244.294882584544</v>
       </c>
     </row>
     <row r="21">
@@ -5834,7 +5834,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K21" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L21" t="n">
         <v>670.8219208598713</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>222.8791647482714</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="C22" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D22" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F22" t="n">
         <v>53.94298182036445</v>
@@ -5934,28 +5934,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064342</v>
+        <v>584.057535428019</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064342</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="T22" t="n">
-        <v>728.1289842064342</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="U22" t="n">
-        <v>728.1289842064342</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="V22" t="n">
-        <v>728.1289842064342</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="W22" t="n">
-        <v>438.7118141694736</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="X22" t="n">
-        <v>438.7118141694736</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.8791647482714</v>
+        <v>369.7691122461817</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1494.154169929768</v>
+        <v>1251.855211652197</v>
       </c>
       <c r="C23" t="n">
-        <v>1125.191652989356</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D23" t="n">
-        <v>766.9259543826058</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E23" t="n">
-        <v>381.1377017843616</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F23" t="n">
-        <v>381.1377017843616</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G23" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H23" t="n">
         <v>53.94298182036445</v>
@@ -5989,19 +5989,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
@@ -6022,19 +6022,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U23" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V23" t="n">
-        <v>1662.48357412947</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W23" t="n">
-        <v>1662.48357412947</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="X23" t="n">
-        <v>1494.154169929768</v>
+        <v>1542.779601230298</v>
       </c>
       <c r="Y23" t="n">
-        <v>1494.154169929768</v>
+        <v>1251.855211652197</v>
       </c>
     </row>
     <row r="24">
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.94298182036445</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="C25" t="n">
-        <v>53.94298182036445</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036445</v>
+        <v>215.5772630464452</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F25" t="n">
         <v>53.94298182036445</v>
@@ -6171,28 +6171,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U25" t="n">
-        <v>598.0446400632119</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="V25" t="n">
-        <v>343.360151857325</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="W25" t="n">
-        <v>53.94298182036445</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="X25" t="n">
-        <v>53.94298182036445</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.94298182036445</v>
+        <v>365.6939024587809</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1268.68094731003</v>
+        <v>1465.195303554219</v>
       </c>
       <c r="C26" t="n">
-        <v>1268.68094731003</v>
+        <v>1465.195303554219</v>
       </c>
       <c r="D26" t="n">
-        <v>1268.68094731003</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E26" t="n">
-        <v>882.8926947117852</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F26" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H26" t="n">
         <v>53.94298182036445</v>
@@ -6226,19 +6226,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
@@ -6250,28 +6250,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U26" t="n">
-        <v>2697.149091018222</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V26" t="n">
-        <v>2697.149091018222</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W26" t="n">
-        <v>2344.380435748108</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X26" t="n">
-        <v>1970.914677487028</v>
+        <v>1465.195303554219</v>
       </c>
       <c r="Y26" t="n">
-        <v>1580.775345511217</v>
+        <v>1465.195303554219</v>
       </c>
     </row>
     <row r="27">
@@ -6296,25 +6296,25 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I27" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K27" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L27" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M27" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N27" t="n">
         <v>1748.695370517453</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>200.8329293182748</v>
+        <v>184.027325963587</v>
       </c>
       <c r="C28" t="n">
-        <v>200.8329293182748</v>
+        <v>184.027325963587</v>
       </c>
       <c r="D28" t="n">
-        <v>200.8329293182748</v>
+        <v>184.027325963587</v>
       </c>
       <c r="E28" t="n">
-        <v>200.8329293182748</v>
+        <v>184.027325963587</v>
       </c>
       <c r="F28" t="n">
         <v>53.94298182036445</v>
@@ -6390,46 +6390,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M28" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R28" t="n">
-        <v>609.7895814799127</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S28" t="n">
-        <v>609.7895814799127</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T28" t="n">
-        <v>382.4813941485145</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U28" t="n">
-        <v>382.4813941485145</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V28" t="n">
-        <v>382.4813941485145</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W28" t="n">
-        <v>382.4813941485145</v>
+        <v>184.027325963587</v>
       </c>
       <c r="X28" t="n">
-        <v>382.4813941485145</v>
+        <v>184.027325963587</v>
       </c>
       <c r="Y28" t="n">
-        <v>382.4813941485145</v>
+        <v>184.027325963587</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1166.959449965771</v>
+        <v>1167.455337753612</v>
       </c>
       <c r="C29" t="n">
-        <v>797.9969330253591</v>
+        <v>798.4928208132003</v>
       </c>
       <c r="D29" t="n">
-        <v>439.7312344186087</v>
+        <v>440.2271222064498</v>
       </c>
       <c r="E29" t="n">
-        <v>53.94298182036444</v>
+        <v>54.43886960820555</v>
       </c>
       <c r="F29" t="n">
-        <v>53.94298182036444</v>
+        <v>54.43886960820555</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036444</v>
+        <v>54.43886960820555</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
@@ -6496,19 +6496,19 @@
         <v>2478.514423990285</v>
       </c>
       <c r="U29" t="n">
-        <v>2224.752638628376</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V29" t="n">
-        <v>1893.689751284805</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W29" t="n">
-        <v>1540.921096014691</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X29" t="n">
         <v>1167.455337753612</v>
       </c>
       <c r="Y29" t="n">
-        <v>1166.959449965771</v>
+        <v>1167.455337753612</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G30" t="n">
         <v>221.4284102424003</v>
@@ -6539,7 +6539,7 @@
         <v>115.9856282673422</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
         <v>129.2001442204943</v>
@@ -6581,10 +6581,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X30" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y30" t="n">
         <v>1156.713312237151</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>369.7691122461817</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C31" t="n">
-        <v>200.8329293182748</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D31" t="n">
-        <v>200.8329293182748</v>
+        <v>409.0761618661918</v>
       </c>
       <c r="E31" t="n">
-        <v>200.8329293182748</v>
+        <v>261.1630682837987</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036444</v>
+        <v>114.2731207858883</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M31" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S31" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T31" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U31" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V31" t="n">
-        <v>369.7691122461817</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W31" t="n">
-        <v>369.7691122461817</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X31" t="n">
-        <v>369.7691122461817</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y31" t="n">
-        <v>369.7691122461817</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1893.689751284806</v>
+        <v>1579.049931616194</v>
       </c>
       <c r="C32" t="n">
-        <v>1524.727234344394</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D32" t="n">
-        <v>1166.461535737644</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E32" t="n">
-        <v>952.5674858910851</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F32" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G32" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H32" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I32" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533138</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6724,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018222</v>
+        <v>2657.693628943646</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018222</v>
+        <v>2481.516141257816</v>
       </c>
       <c r="T32" t="n">
-        <v>2478.514423990285</v>
+        <v>2262.881474229879</v>
       </c>
       <c r="U32" t="n">
-        <v>2224.752638628377</v>
+        <v>2262.881474229879</v>
       </c>
       <c r="V32" t="n">
-        <v>1893.689751284806</v>
+        <v>1931.818586886308</v>
       </c>
       <c r="W32" t="n">
-        <v>1893.689751284806</v>
+        <v>1579.049931616194</v>
       </c>
       <c r="X32" t="n">
-        <v>1893.689751284806</v>
+        <v>1579.049931616194</v>
       </c>
       <c r="Y32" t="n">
-        <v>1893.689751284806</v>
+        <v>1579.049931616194</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
         <v>53.94298182036445</v>
@@ -6782,13 +6782,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L33" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M33" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
         <v>1748.695370517453</v>
@@ -6800,28 +6800,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y33" t="n">
         <v>1156.713312237151</v>
@@ -6834,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>498.8626623130036</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="C34" t="n">
-        <v>498.8626623130036</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="D34" t="n">
         <v>348.7460229006679</v>
@@ -6864,46 +6864,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M34" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T34" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U34" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V34" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W34" t="n">
-        <v>500.820796875036</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X34" t="n">
-        <v>500.820796875036</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="Y34" t="n">
-        <v>500.820796875036</v>
+        <v>438.7118141694738</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1536.177557778964</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C35" t="n">
-        <v>1536.177557778964</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D35" t="n">
-        <v>1177.911859172214</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E35" t="n">
-        <v>792.1236065739693</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F35" t="n">
-        <v>381.1377017843616</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G35" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I35" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6964,25 +6964,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S35" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T35" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U35" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V35" t="n">
-        <v>1971.274048960885</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W35" t="n">
-        <v>1618.50539369077</v>
+        <v>2140.292562720626</v>
       </c>
       <c r="X35" t="n">
-        <v>1618.50539369077</v>
+        <v>2140.292562720626</v>
       </c>
       <c r="Y35" t="n">
-        <v>1618.50539369077</v>
+        <v>1750.153230744814</v>
       </c>
     </row>
     <row r="36">
@@ -6998,19 +6998,19 @@
         <v>814.044945935956</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F36" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I36" t="n">
         <v>53.94298182036445</v>
@@ -7028,13 +7028,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N36" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O36" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P36" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018222</v>
@@ -7071,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C37" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D37" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E37" t="n">
         <v>53.94298182036445</v>
@@ -7101,46 +7101,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M37" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S37" t="n">
-        <v>641.1463251605253</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T37" t="n">
-        <v>641.1463251605253</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U37" t="n">
-        <v>351.9727148150933</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V37" t="n">
-        <v>351.9727148150933</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W37" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X37" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y37" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1780.41262192169</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="C38" t="n">
-        <v>1780.41262192169</v>
+        <v>1215.860583733539</v>
       </c>
       <c r="D38" t="n">
-        <v>1422.14692331494</v>
+        <v>1215.860583733539</v>
       </c>
       <c r="E38" t="n">
-        <v>1036.358670716696</v>
+        <v>1215.860583733539</v>
       </c>
       <c r="F38" t="n">
-        <v>625.3727659270879</v>
+        <v>804.8746789439317</v>
       </c>
       <c r="G38" t="n">
-        <v>207.4089578252748</v>
+        <v>386.9108708421186</v>
       </c>
       <c r="H38" t="n">
-        <v>207.4089578252748</v>
+        <v>59.71615087812143</v>
       </c>
       <c r="I38" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533138</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7198,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T38" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U38" t="n">
-        <v>2224.752638628377</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V38" t="n">
-        <v>1893.689751284806</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W38" t="n">
-        <v>1780.41262192169</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X38" t="n">
-        <v>1780.41262192169</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y38" t="n">
-        <v>1780.41262192169</v>
+        <v>1584.823100673951</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H39" t="n">
         <v>115.9856282673424</v>
@@ -7259,37 +7259,37 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L39" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M39" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>667.7988452409105</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="C40" t="n">
-        <v>498.8626623130036</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="D40" t="n">
-        <v>348.7460229006679</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="E40" t="n">
         <v>200.8329293182748</v>
@@ -7338,46 +7338,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M40" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T40" t="n">
-        <v>667.7988452409105</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="U40" t="n">
-        <v>667.7988452409105</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="V40" t="n">
-        <v>667.7988452409105</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="W40" t="n">
-        <v>667.7988452409105</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="X40" t="n">
-        <v>667.7988452409105</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="Y40" t="n">
-        <v>667.7988452409105</v>
+        <v>286.5323736931989</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2267.209817970484</v>
+        <v>1310.833184497836</v>
       </c>
       <c r="C41" t="n">
-        <v>2107.607341885688</v>
+        <v>1310.833184497836</v>
       </c>
       <c r="D41" t="n">
-        <v>1749.341643278937</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="E41" t="n">
-        <v>1363.553390680693</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="F41" t="n">
         <v>952.5674858910851</v>
@@ -7408,55 +7408,55 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S41" t="n">
-        <v>2520.971603332392</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T41" t="n">
-        <v>2520.971603332392</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U41" t="n">
-        <v>2267.209817970484</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V41" t="n">
-        <v>2267.209817970484</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W41" t="n">
-        <v>2267.209817970484</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="X41" t="n">
-        <v>2267.209817970484</v>
+        <v>1520.223993023727</v>
       </c>
       <c r="Y41" t="n">
-        <v>2267.209817970484</v>
+        <v>1310.833184497836</v>
       </c>
     </row>
     <row r="42">
@@ -7466,40 +7466,40 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J42" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>384.4474646615927</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L42" t="n">
-        <v>789.0633827572644</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M42" t="n">
-        <v>1313.210296315295</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
         <v>1748.695370517453</v>
@@ -7535,7 +7535,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y42" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>500.8207968750359</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="C43" t="n">
-        <v>500.8207968750359</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D43" t="n">
-        <v>350.7041574627001</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E43" t="n">
-        <v>202.791063880307</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F43" t="n">
-        <v>202.791063880307</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M43" t="n">
-        <v>382.7169011658208</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O43" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064341</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T43" t="n">
-        <v>500.8207968750359</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="U43" t="n">
-        <v>500.8207968750359</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="V43" t="n">
-        <v>500.8207968750359</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="W43" t="n">
-        <v>500.8207968750359</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="X43" t="n">
-        <v>500.8207968750359</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="Y43" t="n">
-        <v>500.8207968750359</v>
+        <v>286.5323736931989</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1995.909162857191</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="C44" t="n">
-        <v>1626.94664591678</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D44" t="n">
-        <v>1268.680947310029</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E44" t="n">
-        <v>882.8926947117851</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F44" t="n">
         <v>471.9067899221776</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2520.971603332392</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2520.971603332392</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U44" t="n">
-        <v>2267.209817970484</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V44" t="n">
-        <v>2267.209817970484</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W44" t="n">
-        <v>1995.909162857191</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X44" t="n">
-        <v>1995.909162857191</v>
+        <v>2414.382636290375</v>
       </c>
       <c r="Y44" t="n">
-        <v>1995.909162857191</v>
+        <v>2024.243304314563</v>
       </c>
     </row>
     <row r="45">
@@ -7724,7 +7724,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J45" t="n">
         <v>129.2001442204943</v>
@@ -7733,10 +7733,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L45" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M45" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N45" t="n">
         <v>1748.695370517453</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K46" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M46" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N46" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S46" t="n">
-        <v>513.8405610245969</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="T46" t="n">
-        <v>513.8405610245969</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="U46" t="n">
-        <v>343.360151857325</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="V46" t="n">
-        <v>343.360151857325</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W46" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X46" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
   </sheetData>
@@ -8063,13 +8063,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>359.8407857361378</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>185.2494569035873</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>136.8385818314783</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>384.6945110063437</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N6" t="n">
-        <v>373.8491954283778</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>385.2788254813442</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>138.9730561082392</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>129.8481964236087</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>392.8337743093849</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>381.7094952808121</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>130.3625277915348</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>133.6630807868109</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,16 +8768,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627885</v>
       </c>
       <c r="M12" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -9023,10 +9023,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992659</v>
       </c>
       <c r="Q15" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>166.6588033951786</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9482,10 +9482,10 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L21" t="n">
-        <v>327.4218609627889</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.64146763747166</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9877,7 +9877,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9965,7 +9965,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.64146763747075</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720733</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10369,7 +10369,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10430,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10439,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10597,7 +10597,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119837</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028825</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720733</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10907,7 +10907,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11150,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>359.9065542451766</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11381,13 +11381,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050818</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -22546,22 +22546,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>180.4391552345834</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E2" t="n">
-        <v>179.6356836433646</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -22649,7 +22649,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,16 +22673,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>11.23894902822556</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -22691,10 +22691,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>175.8836868124217</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22761,13 +22761,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22795,19 +22795,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>162.313313380569</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>170.7252358559294</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>339.3235460419765</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>209.9064962068211</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>10.69576364311372</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,19 +22828,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>8.395781178313161</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>148.9413660216818</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>208.6835142066282</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>7.620342298165212</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3444713639914</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>141.6752062949112</v>
+        <v>156.0341136990839</v>
       </c>
     </row>
     <row r="6">
@@ -22865,28 +22865,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3356148920818</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.1591249337519</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.12455904281175</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22913,19 +22913,19 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.5363898835276</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>139.7960541984315</v>
+        <v>140.9766697967279</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -22950,25 +22950,25 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>9.352396981471117</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9843543597988</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>162.1682702466266</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.2512431493756</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>92.89079271141465</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>21.49978743611831</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,22 +22983,22 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.920177260816417</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>85.60728995481479</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>176.9955073465141</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>223.9011423785076</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9172826158254</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3186679929276</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23032,19 +23032,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>143.6340117900446</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>151.9681874521645</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>338.5273214908784</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>206.9091621893709</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,22 +23065,22 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>144.0576027644701</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>222.6908602868995</v>
+        <v>160.679581861839</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3382516189322</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>306.8976337182717</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>122.9959047043867</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23114,13 +23114,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.2940166796957</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>111.757373777286</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>87.69233988828962</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>97.08446202703753</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>170.7637213332854</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>199.9652070090748</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>176.6302781386795</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>100.2996914017151</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23193,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9494798159088</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>161.8582038473137</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>154.2024705022107</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>90.42516245839141</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>17.44799951871611</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,28 +23220,28 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.68702246598916</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>175.4274210366964</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>223.2933741908973</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.7682732010226</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3167657450791</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>126.6879292296158</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>254.7826084543618</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>323.9227727643571</v>
@@ -23305,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>153.1358862956932</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23418,7 +23418,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23427,19 +23427,19 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J13" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R13" t="n">
         <v>146.6651919801579</v>
@@ -23469,16 +23469,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>184.0025971230543</v>
       </c>
       <c r="U13" t="n">
-        <v>51.79469286292885</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,19 +23494,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>39.15565190436087</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23551,19 +23551,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>36.28014736564302</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>131.8370722556802</v>
       </c>
       <c r="T16" t="n">
         <v>225.0351054580843</v>
@@ -23721,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>192.2558333115942</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>395.5103497549842</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>72.86120488981135</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23895,13 +23895,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>167.3098022590509</v>
@@ -23940,10 +23940,10 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>63.77302308703773</v>
       </c>
       <c r="U19" t="n">
         <v>286.2818742419777</v>
@@ -23952,13 +23952,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>63.37316471551392</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23971,16 +23971,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>329.4600091395007</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24016,13 +24016,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24034,7 +24034,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>147.0026245946663</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24138,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>167.3098022590509</v>
@@ -24174,10 +24174,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>4.034457689526846</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>225.0351054580843</v>
@@ -24189,13 +24189,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.910330425104604</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24211,19 +24211,19 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
         <v>151.9313162448613</v>
@@ -24262,7 +24262,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24271,10 +24271,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>203.0849905207644</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>98.22279297373359</v>
       </c>
     </row>
     <row r="24">
@@ -24369,13 +24369,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>131.8370722556805</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>167.3098022590509</v>
@@ -24384,10 +24384,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J25" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,25 +24408,25 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>73.76038744430548</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>102.1262316310305</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>151.9313162448613</v>
@@ -24490,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24612,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>16.63754732114094</v>
       </c>
       <c r="G28" t="n">
         <v>167.3098022590509</v>
@@ -24624,7 +24624,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24648,22 +24648,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>29.5091832809016</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24697,7 +24697,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>323.4318438543945</v>
       </c>
       <c r="I29" t="n">
         <v>151.9313162448613</v>
@@ -24727,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>385.7470097460912</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24843,16 +24843,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831823</v>
       </c>
       <c r="H31" t="n">
         <v>156.1708888417951</v>
@@ -24861,7 +24861,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
         <v>225.0351054580843</v>
@@ -24897,7 +24897,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>109.506909033197</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24922,13 +24922,13 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>170.1752607241687</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,22 +24964,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>15.41749512098082</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>177.8934269655253</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>59.54933966209452</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25098,7 +25098,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
         <v>286.2818742419777</v>
@@ -25137,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>301.2292841107922</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,13 +25201,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
         <v>251.2241675082893</v>
@@ -25216,13 +25216,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>125.7052641729276</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25317,10 +25317,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25335,7 +25335,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25359,22 +25359,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S37" t="n">
-        <v>126.0327064945691</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25393,13 +25393,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25408,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>146.2158788776819</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,25 +25438,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>237.0966106479286</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25551,13 +25551,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>61.59151271539432</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25572,7 +25572,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S40" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>165.3082678822158</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2818742419777</v>
@@ -25630,16 +25630,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>207.2664404470597</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481174</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>178.9410382154217</v>
       </c>
     </row>
     <row r="42">
@@ -25788,10 +25788,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>83.41728579109092</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,16 +25800,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>19.95020101970781</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853702</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,13 +25830,13 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.12274995491433</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S43" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>80.65332015525382</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>144.2707130727111</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26043,10 +26043,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,19 +26067,19 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>202.9246923626428</v>
       </c>
       <c r="U46" t="n">
-        <v>117.5062691663786</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>485250.2066126675</v>
+        <v>482163.6750662233</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>501254.8875917587</v>
+        <v>482163.6750662233</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>810543.9642182668</v>
+        <v>810543.9642182667</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>810543.9642182665</v>
+        <v>810543.9642182667</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>810543.9642182665</v>
+        <v>810543.9642182667</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>810543.9642182664</v>
+        <v>810543.9642182665</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>810543.9642182667</v>
+        <v>810543.9642182668</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>810543.9642182669</v>
+        <v>810543.9642182667</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>810543.9642182665</v>
+        <v>810543.9642182668</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>810543.9642182667</v>
+        <v>810543.9642182665</v>
       </c>
     </row>
   </sheetData>
@@ -26316,16 +26316,16 @@
         <v>141236.5716516325</v>
       </c>
       <c r="C2" t="n">
-        <v>142222.1657638405</v>
+        <v>141236.5716516325</v>
       </c>
       <c r="D2" t="n">
-        <v>147339.1279972481</v>
+        <v>141236.5716516325</v>
       </c>
       <c r="E2" t="n">
         <v>245779.7185133939</v>
       </c>
       <c r="F2" t="n">
-        <v>245779.7185133938</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="G2" t="n">
         <v>245779.7185133939</v>
@@ -26343,10 +26343,10 @@
         <v>245779.7185133938</v>
       </c>
       <c r="L2" t="n">
-        <v>245779.7185133938</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="M2" t="n">
-        <v>245779.7185133938</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="N2" t="n">
         <v>245779.7185133939</v>
@@ -26355,7 +26355,7 @@
         <v>245779.7185133939</v>
       </c>
       <c r="P2" t="n">
-        <v>245779.7185133938</v>
+        <v>245779.7185133939</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
-        <v>4491.824968753434</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>22364.98695753564</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>407720.4376835742</v>
+        <v>432846.174042996</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
-        <v>913.2558024571108</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>4727.563118847463</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>102434.1176906351</v>
+        <v>107973.3606740581</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>42017.42535589615</v>
       </c>
       <c r="C4" t="n">
-        <v>42033.93659314635</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="D4" t="n">
-        <v>42100.10620798598</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="E4" t="n">
         <v>44802.65617556861</v>
@@ -26441,19 +26441,19 @@
         <v>44802.65617556861</v>
       </c>
       <c r="J4" t="n">
-        <v>44802.6561755686</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="K4" t="n">
         <v>44802.6561755686</v>
       </c>
       <c r="L4" t="n">
-        <v>44802.65617556861</v>
+        <v>44802.6561755686</v>
       </c>
       <c r="M4" t="n">
-        <v>44802.65617556861</v>
+        <v>44802.6561755686</v>
       </c>
       <c r="N4" t="n">
-        <v>44802.65617556861</v>
+        <v>44802.6561755686</v>
       </c>
       <c r="O4" t="n">
         <v>44802.65617556861</v>
@@ -26472,10 +26472,10 @@
         <v>48281.26876376167</v>
       </c>
       <c r="C5" t="n">
-        <v>48577.10433863014</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>50134.40740683336</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
         <v>49231.47806340946</v>
@@ -26508,10 +26508,10 @@
         <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-42049.56461961346</v>
+        <v>-31053.35506157708</v>
       </c>
       <c r="C6" t="n">
-        <v>34959.26536751765</v>
+        <v>49716.07646997069</v>
       </c>
       <c r="D6" t="n">
-        <v>20880.5907075359</v>
+        <v>49716.07646997069</v>
       </c>
       <c r="E6" t="n">
-        <v>-262043.2671549775</v>
+        <v>-281707.4311431621</v>
       </c>
       <c r="F6" t="n">
-        <v>145677.1705285966</v>
+        <v>151138.7428998339</v>
       </c>
       <c r="G6" t="n">
-        <v>145677.1705285966</v>
+        <v>151138.7428998339</v>
       </c>
       <c r="H6" t="n">
-        <v>145677.1705285966</v>
+        <v>151138.7428998339</v>
       </c>
       <c r="I6" t="n">
-        <v>145677.1705285966</v>
+        <v>151138.7428998339</v>
       </c>
       <c r="J6" t="n">
-        <v>82617.22792949041</v>
+        <v>88078.80030072766</v>
       </c>
       <c r="K6" t="n">
-        <v>144763.9147261395</v>
+        <v>151138.7428998338</v>
       </c>
       <c r="L6" t="n">
-        <v>140949.6074097491</v>
+        <v>151138.7428998339</v>
       </c>
       <c r="M6" t="n">
-        <v>43243.0528379614</v>
+        <v>43165.38222577582</v>
       </c>
       <c r="N6" t="n">
-        <v>145677.1705285966</v>
+        <v>151138.7428998339</v>
       </c>
       <c r="O6" t="n">
-        <v>145677.1705285966</v>
+        <v>151138.7428998339</v>
       </c>
       <c r="P6" t="n">
-        <v>145677.1705285966</v>
+        <v>151138.7428998339</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3.673862893242319</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678962</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>377.7436642170866</v>
@@ -26761,25 +26761,25 @@
         <v>377.7436642170866</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
     </row>
     <row r="4">
@@ -26792,10 +26792,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>244.5627323611424</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>263.2420339516669</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
         <v>674.2872727545556</v>
@@ -26816,7 +26816,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
         <v>674.2872727545556</v>
@@ -26828,10 +26828,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
     </row>
   </sheetData>
@@ -26962,13 +26962,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3.673862893242319</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>19.3395197935473</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>354.730281530297</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>3.548443483483339</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>18.67930159052449</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>411.0452388028887</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
-        <v>3.548443483483226</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>18.6793015905246</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>411.0452388028887</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
-        <v>3.548443483483339</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>18.67930159052449</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>411.0452388028887</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01476929806328569</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1512560737906247</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5693933635848223</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1.253525711498795</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>1.878710098517679</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>2.330706004121959</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>2.593359508554916</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>2.635322776677227</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>2.488460569060429</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>2.123843523123063</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.594918036231644</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.9277519194678708</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0.3365553796171231</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0.06465260227203316</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0.001181543845062855</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.007902271128860838</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.07631930274452442</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2720738086033228</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>1.276043491891533</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>1.715797948395859</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>2.002255276817064</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>2.05524901609789</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1.880151324242605</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.508987194773435</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.008717977782306</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.4906339916673424</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1467812203102001</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0.03185169810273293</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0.000519886258477687</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.006624998659945165</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.05890226081296706</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1992317778827147</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4683874052581232</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7697043897645381</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9849566189522114</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1.038498653576677</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>1.013805476753246</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0.936413446952977</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0.8012634742900949</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.5547532968795902</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0.2978840306553526</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1154556584646807</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0.02830681245612934</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0003613635632697367</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.09251611130367678</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.94748062488878</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>3.566727381035002</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>7.852189301760444</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>11.76839629324508</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>14.59973623455499</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>16.24501962895175</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>16.50788103019332</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>15.58792394841738</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>13.30393245060786</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544932</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>5.811515176679592</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>2.108210886332537</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4049892772318453</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0.00740128890429414</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04950048351498144</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4780704592104787</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.704292963125458</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>4.676710155246559</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>7.993242550750314</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>10.74790103688226</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>12.54229356430034</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>12.87425075418809</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>11.77742425104034</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>9.452421277523079</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.318693299210613</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>3.073372125605603</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9194497705523959</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1995216857467891</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0.00325661075756457</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04149954254994848</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3689686601259058</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1.248004425047542</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2.934017658281358</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>4.821492307166741</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>6.169850171471433</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>6.505241928988742</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>6.35056181584803</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>5.865771705150903</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>5.019181037131949</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.475020785705232</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>1.865970340473138</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.723223846075011</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1773162272588708</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.002263611411815374</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,13 +31752,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
@@ -31776,22 +31776,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q11" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S11" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I12" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31864,16 +31864,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T12" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J13" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
@@ -31934,13 +31934,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R13" t="n">
         <v>30.62819939701163</v>
@@ -31949,7 +31949,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U13" t="n">
         <v>0.0371551145131561</v>
@@ -32700,13 +32700,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H23" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
@@ -32724,22 +32724,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O23" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P23" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q23" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S23" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I24" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32812,16 +32812,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S24" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T24" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I25" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J25" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L25" t="n">
         <v>101.2724571246924</v>
@@ -32882,13 +32882,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P25" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R25" t="n">
         <v>30.62819939701163</v>
@@ -32897,7 +32897,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T25" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U25" t="n">
         <v>0.0371551145131561</v>
@@ -32943,19 +32943,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L26" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N26" t="n">
         <v>270.9617944338304</v>
@@ -32970,13 +32970,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I27" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33043,22 +33043,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q27" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S27" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I28" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K28" t="n">
         <v>79.14039391302239</v>
@@ -33119,16 +33119,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P28" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
@@ -33180,19 +33180,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L29" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N29" t="n">
         <v>270.9617944338304</v>
@@ -33207,13 +33207,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I30" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33280,22 +33280,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q30" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S30" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I31" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K31" t="n">
         <v>79.14039391302239</v>
@@ -33356,16 +33356,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P31" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
@@ -33417,19 +33417,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L32" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N32" t="n">
         <v>270.9617944338304</v>
@@ -33444,13 +33444,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I33" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33517,22 +33517,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q33" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S33" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I34" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K34" t="n">
         <v>79.14039391302239</v>
@@ -33593,16 +33593,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P34" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
@@ -33654,19 +33654,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L35" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N35" t="n">
         <v>270.9617944338304</v>
@@ -33681,13 +33681,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I36" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33754,22 +33754,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q36" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S36" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I37" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K37" t="n">
         <v>79.14039391302239</v>
@@ -33830,16 +33830,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P37" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
@@ -33891,19 +33891,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L38" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N38" t="n">
         <v>270.9617944338304</v>
@@ -33918,13 +33918,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I39" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33991,22 +33991,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q39" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S39" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I40" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K40" t="n">
         <v>79.14039391302239</v>
@@ -34067,16 +34067,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P40" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
@@ -34122,46 +34122,46 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J41" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L41" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N41" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I42" t="n">
-        <v>27.97441286890688</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K42" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L42" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M42" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N42" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O42" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q42" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H43" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M43" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N43" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S43" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,46 +34359,46 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L44" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N44" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q44" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I45" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34465,22 +34465,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q45" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34541,22 +34541,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U46" t="n">
         <v>0.0371551145131561</v>
@@ -34783,13 +34783,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>217.7067518141195</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>105.9342716247019</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>184.2255055845852</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>221.7606597741147</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>210.5691835920705</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>153.1904304101191</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>92.68955593933616</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>48.68406142111987</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>244.5627323611424</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N6" t="n">
-        <v>244.5627323611424</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>244.5627323611424</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>185.9973484203803</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,16 +35099,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>28.57498187926835</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M7" t="n">
-        <v>40.62237561541726</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N7" t="n">
-        <v>45.14597785598184</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O7" t="n">
-        <v>25.52154136099265</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>115.8239578194293</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>196.4945358150182</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>235.4123198945115</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>224.4417418455866</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>166.289893789476</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>103.869644866821</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>3.930118828988702</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>243.0338665604673</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>263.2420339516669</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>263.2420339516669</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O9" t="n">
-        <v>263.0434990833254</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>5.840541654727605</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35336,19 +35336,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>33.75987543178757</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M10" t="n">
-        <v>46.08911889082933</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N10" t="n">
-        <v>50.48273419507662</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O10" t="n">
-        <v>30.45089961919058</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P10" t="n">
-        <v>2.297740302025437</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35424,10 +35424,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q11" t="n">
         <v>153.9975062898689</v>
@@ -35488,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
-        <v>408.7029475713857</v>
+        <v>365.284463230715</v>
       </c>
       <c r="M12" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P12" t="n">
         <v>339.6412258735646</v>
@@ -35570,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
@@ -35585,7 +35585,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35743,10 +35743,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735647</v>
+        <v>296.2227415328935</v>
       </c>
       <c r="Q15" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35983,7 +35983,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>130.3926104730635</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K20" t="n">
         <v>297.2230414343419</v>
@@ -36202,10 +36202,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L21" t="n">
-        <v>365.2844632307155</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M21" t="n">
         <v>529.4413268262938</v>
@@ -36372,10 +36372,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P23" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q23" t="n">
         <v>153.9975062898689</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36451,7 +36451,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P24" t="n">
         <v>339.6412258735646</v>
@@ -36518,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L25" t="n">
         <v>128.8624823850085</v>
@@ -36533,7 +36533,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P25" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36594,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K26" t="n">
-        <v>297.2230414343417</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O26" t="n">
         <v>406.5635087530452</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36685,13 +36685,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q27" t="n">
         <v>173.8110948137341</v>
@@ -36831,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K29" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O29" t="n">
         <v>406.5635087530452</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36922,13 +36922,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q30" t="n">
         <v>54.37527471535575</v>
@@ -37068,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181306</v>
       </c>
       <c r="K32" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O32" t="n">
         <v>406.5635087530452</v>
@@ -37089,7 +37089,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q32" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K33" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713857</v>
@@ -37159,13 +37159,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q33" t="n">
         <v>173.8110948137341</v>
@@ -37305,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.9372285181308</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K35" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492232</v>
       </c>
       <c r="O35" t="n">
         <v>406.5635087530452</v>
@@ -37396,16 +37396,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q36" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181306</v>
       </c>
       <c r="K38" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O38" t="n">
         <v>406.5635087530452</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L39" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M39" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q39" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,25 +37779,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K41" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q41" t="n">
         <v>153.9975062898689</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.01733575770687</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K42" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M42" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>439.8839133355132</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q42" t="n">
         <v>173.8110948137341</v>
@@ -37940,13 +37940,13 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M43" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N43" t="n">
         <v>148.370846145888</v>
@@ -37955,7 +37955,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38016,25 +38016,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K44" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q44" t="n">
         <v>153.9975062898689</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L45" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730084</v>
       </c>
       <c r="M45" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q45" t="n">
         <v>173.8110948137341</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38192,7 +38192,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
